--- a/raw_data/20200818_saline/20200818_Sensor2_Test_68.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_68.xlsx
@@ -1,795 +1,1211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1991ED76-3B35-4717-9A35-A44E5D79B2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>60674.601805</v>
+        <v>60674.601804999998</v>
       </c>
       <c r="B2" s="1">
         <v>16.854056</v>
       </c>
       <c r="C2" s="1">
-        <v>1247.680000</v>
+        <v>1247.68</v>
       </c>
       <c r="D2" s="1">
-        <v>-304.067000</v>
+        <v>-304.06700000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>60685.007378</v>
+        <v>60685.007378000002</v>
       </c>
       <c r="G2" s="1">
-        <v>16.856946</v>
+        <v>16.856946000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1272.180000</v>
+        <v>1272.18</v>
       </c>
       <c r="I2" s="1">
-        <v>-262.733000</v>
+        <v>-262.733</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>60695.147086</v>
+        <v>60695.147085999997</v>
       </c>
       <c r="L2" s="1">
-        <v>16.859763</v>
+        <v>16.859763000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1306.300000</v>
+        <v>1306.3</v>
       </c>
       <c r="N2" s="1">
-        <v>-201.518000</v>
+        <v>-201.518</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>60705.639951</v>
+        <v>60705.639950999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>16.862678</v>
+        <v>16.862677999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1318.130000</v>
+        <v>1318.13</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.974000</v>
+        <v>-183.97399999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>60716.246865</v>
+        <v>60716.246865000001</v>
       </c>
       <c r="V2" s="1">
         <v>16.865624</v>
       </c>
       <c r="W2" s="1">
-        <v>1331.290000</v>
+        <v>1331.29</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.835000</v>
+        <v>-170.83500000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>60726.675783</v>
+        <v>60726.675782999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>16.868521</v>
+        <v>16.868521000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1348.790000</v>
+        <v>1348.79</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.341000</v>
+        <v>-169.34100000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>60737.239077</v>
+        <v>60737.239076999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>16.871455</v>
+        <v>16.871455000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1361.960000</v>
+        <v>1361.96</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.287000</v>
+        <v>-179.28700000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>60747.358921</v>
+        <v>60747.358920999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.874266</v>
+        <v>16.874265999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1383.150000</v>
+        <v>1383.15</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.366000</v>
+        <v>-209.36600000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>60757.941065</v>
+        <v>60757.941064999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.877206</v>
+        <v>16.877206000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1405.440000</v>
+        <v>1405.44</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.168000</v>
+        <v>-253.16800000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>60769.205211</v>
       </c>
       <c r="AU2" s="1">
-        <v>16.880335</v>
+        <v>16.880334999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1430.750000</v>
+        <v>1430.75</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.784000</v>
+        <v>-312.78399999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>60780.022461</v>
       </c>
       <c r="AZ2" s="1">
-        <v>16.883340</v>
+        <v>16.88334</v>
       </c>
       <c r="BA2" s="1">
-        <v>1450.670000</v>
+        <v>1450.67</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.361000</v>
+        <v>-364.36099999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>60791.020750</v>
+        <v>60791.020750000003</v>
       </c>
       <c r="BE2" s="1">
         <v>16.886395</v>
       </c>
       <c r="BF2" s="1">
-        <v>1538.210000</v>
+        <v>1538.21</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.417000</v>
+        <v>-609.41700000000003</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>60801.700112</v>
+        <v>60801.700111999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>16.889361</v>
+        <v>16.889361000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1695.530000</v>
+        <v>1695.53</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1046.780000</v>
+        <v>-1046.78</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>60813.559492</v>
       </c>
       <c r="BO2" s="1">
-        <v>16.892655</v>
+        <v>16.892655000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1994.030000</v>
+        <v>1994.03</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1800.430000</v>
+        <v>-1800.43</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>60824.736305</v>
+        <v>60824.736304999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>16.895760</v>
+        <v>16.895759999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2385.690000</v>
+        <v>2385.69</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2667.920000</v>
+        <v>-2667.92</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>60835.180563</v>
+        <v>60835.180563000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>16.898661</v>
+        <v>16.898661000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2871.100000</v>
+        <v>2871.1</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3604.020000</v>
+        <v>-3604.02</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>60846.531508</v>
       </c>
       <c r="CD2" s="1">
-        <v>16.901814</v>
+        <v>16.901814000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>4279.490000</v>
+        <v>4279.49</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5850.490000</v>
+        <v>-5850.49</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>60674.961367</v>
+        <v>60674.961367000004</v>
       </c>
       <c r="B3" s="1">
         <v>16.854156</v>
       </c>
       <c r="C3" s="1">
-        <v>1247.690000</v>
+        <v>1247.69</v>
       </c>
       <c r="D3" s="1">
-        <v>-304.066000</v>
+        <v>-304.06599999999997</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>60685.425961</v>
+        <v>60685.425961000001</v>
       </c>
       <c r="G3" s="1">
         <v>16.857063</v>
       </c>
       <c r="H3" s="1">
-        <v>1271.470000</v>
+        <v>1271.47</v>
       </c>
       <c r="I3" s="1">
-        <v>-262.500000</v>
+        <v>-262.5</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>60695.571174</v>
+        <v>60695.571173999997</v>
       </c>
       <c r="L3" s="1">
-        <v>16.859881</v>
+        <v>16.859881000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1306.120000</v>
+        <v>1306.1199999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.363000</v>
+        <v>-201.363</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>60706.062016</v>
+        <v>60706.062016000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>16.862795</v>
+        <v>16.862794999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>1318.010000</v>
+        <v>1318.01</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.008000</v>
+        <v>-184.00800000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>60716.615888</v>
@@ -798,58 +1214,58 @@
         <v>16.865727</v>
       </c>
       <c r="W3" s="1">
-        <v>1330.980000</v>
+        <v>1330.98</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.007000</v>
+        <v>-171.00700000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>60727.038833</v>
+        <v>60727.038832999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.868622</v>
+        <v>16.868621999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>1348.750000</v>
+        <v>1348.75</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.279000</v>
+        <v>-169.279</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>60737.621991</v>
       </c>
       <c r="AF3" s="1">
-        <v>16.871562</v>
+        <v>16.871562000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1361.910000</v>
+        <v>1361.91</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.483000</v>
+        <v>-179.483</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>60748.092006</v>
+        <v>60748.092005999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>16.874470</v>
+        <v>16.874469999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1383.140000</v>
+        <v>1383.14</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.402000</v>
+        <v>-209.40199999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>60758.698954</v>
@@ -858,88 +1274,88 @@
         <v>16.877416</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1405.450000</v>
+        <v>1405.45</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.167000</v>
+        <v>-253.167</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>60769.613450</v>
+        <v>60769.613449999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>16.880448</v>
+        <v>16.880448000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1430.780000</v>
+        <v>1430.78</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.776000</v>
+        <v>-312.77600000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>60780.387517</v>
+        <v>60780.387517000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>16.883441</v>
+        <v>16.883441000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1450.730000</v>
+        <v>1450.73</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.367000</v>
+        <v>-364.36700000000002</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>60791.381376</v>
+        <v>60791.381375999998</v>
       </c>
       <c r="BE3" s="1">
         <v>16.886495</v>
       </c>
       <c r="BF3" s="1">
-        <v>1538.180000</v>
+        <v>1538.18</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.506000</v>
+        <v>-609.50599999999997</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>60802.408895</v>
       </c>
       <c r="BJ3" s="1">
-        <v>16.889558</v>
+        <v>16.889558000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1695.510000</v>
+        <v>1695.51</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1046.750000</v>
+        <v>-1046.75</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>60813.695028</v>
+        <v>60813.695028000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>16.892693</v>
+        <v>16.892693000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1993.900000</v>
+        <v>1993.9</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1800.640000</v>
+        <v>-1800.64</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>60824.928257</v>
@@ -948,195 +1364,195 @@
         <v>16.895813</v>
       </c>
       <c r="BU3" s="1">
-        <v>2385.350000</v>
+        <v>2385.35</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2668.200000</v>
+        <v>-2668.2</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>60835.643859</v>
+        <v>60835.643859000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>16.898790</v>
+        <v>16.898790000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2870.590000</v>
+        <v>2870.59</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3603.740000</v>
+        <v>-3603.74</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>60847.122772</v>
+        <v>60847.122772000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>16.901979</v>
+        <v>16.901979000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4283.930000</v>
+        <v>4283.93</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5833.850000</v>
+        <v>-5833.85</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>60675.378006</v>
+        <v>60675.378005999999</v>
       </c>
       <c r="B4" s="1">
-        <v>16.854272</v>
+        <v>16.854272000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>1247.570000</v>
+        <v>1247.57</v>
       </c>
       <c r="D4" s="1">
-        <v>-303.828000</v>
+        <v>-303.82799999999997</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>60685.737481</v>
+        <v>60685.737480999996</v>
       </c>
       <c r="G4" s="1">
         <v>16.857149</v>
       </c>
       <c r="H4" s="1">
-        <v>1271.530000</v>
+        <v>1271.53</v>
       </c>
       <c r="I4" s="1">
-        <v>-262.863000</v>
+        <v>-262.863</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>60695.905933</v>
+        <v>60695.905933000002</v>
       </c>
       <c r="L4" s="1">
-        <v>16.859974</v>
+        <v>16.859974000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1306.380000</v>
+        <v>1306.3800000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.314000</v>
+        <v>-201.31399999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>60706.410703</v>
+        <v>60706.410703000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>16.862892</v>
+        <v>16.862891999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1317.990000</v>
+        <v>1317.99</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.970000</v>
+        <v>-183.97</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>60716.959647</v>
+        <v>60716.959647000003</v>
       </c>
       <c r="V4" s="1">
-        <v>16.865822</v>
+        <v>16.865822000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1331.330000</v>
+        <v>1331.33</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.004000</v>
+        <v>-171.00399999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>60727.390518</v>
       </c>
       <c r="AA4" s="1">
-        <v>16.868720</v>
+        <v>16.86872</v>
       </c>
       <c r="AB4" s="1">
-        <v>1348.730000</v>
+        <v>1348.73</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.342000</v>
+        <v>-169.34200000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>60738.309907</v>
+        <v>60738.309907000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>16.871753</v>
+        <v>16.871752999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>1361.870000</v>
+        <v>1361.87</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.305000</v>
+        <v>-179.30500000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>60748.439206</v>
+        <v>60748.439206000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>16.874566</v>
+        <v>16.874566000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1383.130000</v>
+        <v>1383.13</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.394000</v>
+        <v>-209.39400000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>60759.059544</v>
+        <v>60759.059544000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>16.877517</v>
+        <v>16.877517000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1405.460000</v>
+        <v>1405.46</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.177000</v>
+        <v>-253.17699999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>60769.976490</v>
+        <v>60769.976490000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>16.880549</v>
+        <v>16.880548999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1430.780000</v>
+        <v>1430.78</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.775000</v>
+        <v>-312.77499999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>60781.053645</v>
@@ -1145,13 +1561,13 @@
         <v>16.883626</v>
       </c>
       <c r="BA4" s="1">
-        <v>1450.720000</v>
+        <v>1450.72</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.334000</v>
+        <v>-364.334</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>60792.055902</v>
@@ -1160,348 +1576,348 @@
         <v>16.886682</v>
       </c>
       <c r="BF4" s="1">
-        <v>1538.230000</v>
+        <v>1538.23</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.488000</v>
+        <v>-609.48800000000006</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>60802.849838</v>
+        <v>60802.849838000002</v>
       </c>
       <c r="BJ4" s="1">
         <v>16.889681</v>
       </c>
       <c r="BK4" s="1">
-        <v>1695.470000</v>
+        <v>1695.47</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1046.840000</v>
+        <v>-1046.8399999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>60814.095633</v>
+        <v>60814.095632999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>16.892804</v>
+        <v>16.892804000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1993.790000</v>
+        <v>1993.79</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1800.730000</v>
+        <v>-1800.73</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>60825.358289</v>
+        <v>60825.358289000003</v>
       </c>
       <c r="BT4" s="1">
-        <v>16.895933</v>
+        <v>16.895932999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>2384.730000</v>
+        <v>2384.73</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2668.220000</v>
+        <v>-2668.22</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>60836.092212</v>
+        <v>60836.092212000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.898915</v>
+        <v>16.898914999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2871.170000</v>
+        <v>2871.17</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3604.530000</v>
+        <v>-3604.53</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>60847.656471</v>
+        <v>60847.656471000002</v>
       </c>
       <c r="CD4" s="1">
         <v>16.902127</v>
       </c>
       <c r="CE4" s="1">
-        <v>4276.390000</v>
+        <v>4276.3900000000003</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5849.170000</v>
+        <v>-5849.17</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>60675.656264</v>
+        <v>60675.656263999997</v>
       </c>
       <c r="B5" s="1">
-        <v>16.854349</v>
+        <v>16.854348999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1247.330000</v>
+        <v>1247.33</v>
       </c>
       <c r="D5" s="1">
-        <v>-303.793000</v>
+        <v>-303.79300000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>60686.078698</v>
+        <v>60686.078697999998</v>
       </c>
       <c r="G5" s="1">
-        <v>16.857244</v>
+        <v>16.857244000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1271.620000</v>
+        <v>1271.6199999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-263.240000</v>
+        <v>-263.24</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>60696.251183</v>
       </c>
       <c r="L5" s="1">
-        <v>16.860070</v>
+        <v>16.86007</v>
       </c>
       <c r="M5" s="1">
-        <v>1306.130000</v>
+        <v>1306.1300000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.416000</v>
+        <v>-201.416</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>60706.757902</v>
+        <v>60706.757901999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>16.862988</v>
+        <v>16.862988000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1318.010000</v>
+        <v>1318.01</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.920000</v>
+        <v>-183.92</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>60717.643104</v>
+        <v>60717.643104000002</v>
       </c>
       <c r="V5" s="1">
-        <v>16.866012</v>
+        <v>16.866012000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1331.350000</v>
+        <v>1331.35</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.874000</v>
+        <v>-170.874</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>60728.084881</v>
+        <v>60728.084881000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>16.868912</v>
+        <v>16.868912000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1348.690000</v>
+        <v>1348.69</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.310000</v>
+        <v>-169.31</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>60738.649700</v>
+        <v>60738.649700000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>16.871847</v>
+        <v>16.871846999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1361.990000</v>
+        <v>1361.99</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.319000</v>
+        <v>-179.31899999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>60748.786903</v>
       </c>
       <c r="AK5" s="1">
-        <v>16.874663</v>
+        <v>16.874663000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1383.110000</v>
+        <v>1383.11</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.381000</v>
+        <v>-209.381</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>60759.420136</v>
+        <v>60759.420136000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>16.877617</v>
+        <v>16.877617000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1405.460000</v>
+        <v>1405.46</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.194000</v>
+        <v>-253.19399999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>60770.653529</v>
+        <v>60770.653529000003</v>
       </c>
       <c r="AU5" s="1">
         <v>16.880737</v>
       </c>
       <c r="AV5" s="1">
-        <v>1430.730000</v>
+        <v>1430.73</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.770000</v>
+        <v>-312.77</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>60781.460395</v>
+        <v>60781.460395000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>16.883739</v>
+        <v>16.883738999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1450.670000</v>
+        <v>1450.67</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.415000</v>
+        <v>-364.41500000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>60792.497001</v>
+        <v>60792.497001000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>16.886805</v>
+        <v>16.886804999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1538.210000</v>
+        <v>1538.21</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.445000</v>
+        <v>-609.44500000000005</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>60803.224349</v>
+        <v>60803.224348999996</v>
       </c>
       <c r="BJ5" s="1">
         <v>16.889785</v>
       </c>
       <c r="BK5" s="1">
-        <v>1695.460000</v>
+        <v>1695.46</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1046.810000</v>
+        <v>-1046.81</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>60814.518224</v>
+        <v>60814.518223999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>16.892922</v>
+        <v>16.892921999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1993.710000</v>
+        <v>1993.71</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1800.690000</v>
+        <v>-1800.69</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>60825.768976</v>
+        <v>60825.768975999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>16.896047</v>
+        <v>16.896046999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2384.000000</v>
+        <v>2384</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2667.720000</v>
+        <v>-2667.72</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>60836.527202</v>
+        <v>60836.527201999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>16.899035</v>
+        <v>16.899035000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2870.360000</v>
+        <v>2870.36</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3603.990000</v>
+        <v>-3603.99</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>60848.173763</v>
+        <v>60848.173762999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>16.902270</v>
+        <v>16.902270000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4275.570000</v>
+        <v>4275.57</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5839.260000</v>
+        <v>-5839.26</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>60675.996518</v>
       </c>
@@ -1509,315 +1925,315 @@
         <v>16.854443</v>
       </c>
       <c r="C6" s="1">
-        <v>1247.190000</v>
+        <v>1247.19</v>
       </c>
       <c r="D6" s="1">
-        <v>-304.144000</v>
+        <v>-304.14400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>60686.424904</v>
       </c>
       <c r="G6" s="1">
-        <v>16.857340</v>
+        <v>16.857340000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1272.190000</v>
+        <v>1272.19</v>
       </c>
       <c r="I6" s="1">
-        <v>-262.883000</v>
+        <v>-262.88299999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>60696.879084</v>
       </c>
       <c r="L6" s="1">
-        <v>16.860244</v>
+        <v>16.860244000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>1306.530000</v>
+        <v>1306.53</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.471000</v>
+        <v>-201.471</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>60707.456270</v>
+        <v>60707.456270000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>16.863182</v>
+        <v>16.863181999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>1318.120000</v>
+        <v>1318.12</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.915000</v>
+        <v>-183.91499999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>60717.991792</v>
+        <v>60717.991792000001</v>
       </c>
       <c r="V6" s="1">
-        <v>16.866109</v>
+        <v>16.866109000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>1331.240000</v>
+        <v>1331.24</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.028000</v>
+        <v>-171.02799999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>60728.434561</v>
+        <v>60728.434561000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.869010</v>
+        <v>16.869009999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1348.790000</v>
+        <v>1348.79</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.345000</v>
+        <v>-169.345</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>60738.991443</v>
+        <v>60738.991442999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>16.871942</v>
+        <v>16.871942000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1362.010000</v>
+        <v>1362.01</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.258000</v>
+        <v>-179.25800000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>60749.446119</v>
       </c>
       <c r="AK6" s="1">
-        <v>16.874846</v>
+        <v>16.874846000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1383.130000</v>
+        <v>1383.13</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.366000</v>
+        <v>-209.36600000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>60760.091719</v>
+        <v>60760.091718999996</v>
       </c>
       <c r="AP6" s="1">
         <v>16.877803</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1405.440000</v>
+        <v>1405.44</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.175000</v>
+        <v>-253.17500000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>60771.096952</v>
       </c>
       <c r="AU6" s="1">
-        <v>16.880860</v>
+        <v>16.880859999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>1430.770000</v>
+        <v>1430.77</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.784000</v>
+        <v>-312.78399999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>60781.850746</v>
+        <v>60781.850745999996</v>
       </c>
       <c r="AZ6" s="1">
-        <v>16.883847</v>
+        <v>16.883846999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1450.660000</v>
+        <v>1450.66</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.342000</v>
+        <v>-364.34199999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>60792.856939</v>
+        <v>60792.856938999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>16.886905</v>
+        <v>16.886904999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1538.180000</v>
+        <v>1538.18</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.445000</v>
+        <v>-609.44500000000005</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>60803.599791</v>
+        <v>60803.599791000001</v>
       </c>
       <c r="BJ6" s="1">
         <v>16.889889</v>
       </c>
       <c r="BK6" s="1">
-        <v>1695.480000</v>
+        <v>1695.48</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1046.710000</v>
+        <v>-1046.71</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>60814.945095</v>
+        <v>60814.945095000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>16.893040</v>
+        <v>16.893039999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1993.780000</v>
+        <v>1993.78</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1800.580000</v>
+        <v>-1800.58</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>60826.199503</v>
+        <v>60826.199503000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>16.896167</v>
+        <v>16.896166999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>2383.610000</v>
+        <v>2383.61</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2668.090000</v>
+        <v>-2668.09</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>60836.944834</v>
+        <v>60836.944834000002</v>
       </c>
       <c r="BY6" s="1">
         <v>16.899151</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2870.190000</v>
+        <v>2870.19</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3604.020000</v>
+        <v>-3604.02</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>60848.740226</v>
+        <v>60848.740226000002</v>
       </c>
       <c r="CD6" s="1">
         <v>16.902428</v>
       </c>
       <c r="CE6" s="1">
-        <v>4286.750000</v>
+        <v>4286.75</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5832.420000</v>
+        <v>-5832.42</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>60676.341746</v>
+        <v>60676.341745999998</v>
       </c>
       <c r="B7" s="1">
-        <v>16.854539</v>
+        <v>16.854538999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1247.590000</v>
+        <v>1247.5899999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-304.119000</v>
+        <v>-304.11900000000003</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>60687.112884</v>
+        <v>60687.112884000002</v>
       </c>
       <c r="G7" s="1">
-        <v>16.857531</v>
+        <v>16.857531000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>1271.510000</v>
+        <v>1271.51</v>
       </c>
       <c r="I7" s="1">
-        <v>-262.649000</v>
+        <v>-262.649</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>60697.288891</v>
+        <v>60697.288890999997</v>
       </c>
       <c r="L7" s="1">
-        <v>16.860358</v>
+        <v>16.860358000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>1306.230000</v>
+        <v>1306.23</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.425000</v>
+        <v>-201.42500000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>60707.804490</v>
+        <v>60707.804490000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>16.863279</v>
+        <v>16.863278999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1318.080000</v>
+        <v>1318.08</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.934000</v>
+        <v>-183.934</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>60718.336013</v>
@@ -1826,270 +2242,270 @@
         <v>16.866204</v>
       </c>
       <c r="W7" s="1">
-        <v>1331.210000</v>
+        <v>1331.21</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.951000</v>
+        <v>-170.95099999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>60728.793664</v>
+        <v>60728.793663999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>16.869109</v>
+        <v>16.869109000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>1348.780000</v>
+        <v>1348.78</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.309000</v>
+        <v>-169.309</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>60739.647121</v>
+        <v>60739.647121000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>16.872124</v>
+        <v>16.872123999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1361.880000</v>
+        <v>1361.88</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.363000</v>
+        <v>-179.363</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>60749.831476</v>
+        <v>60749.831475999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>16.874953</v>
+        <v>16.874953000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1383.160000</v>
+        <v>1383.16</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.374000</v>
+        <v>-209.374</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>60760.496454</v>
       </c>
       <c r="AP7" s="1">
-        <v>16.877916</v>
+        <v>16.877915999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1405.440000</v>
+        <v>1405.44</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.191000</v>
+        <v>-253.191</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>60771.460549</v>
+        <v>60771.460549000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>16.880961</v>
+        <v>16.880960999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1430.760000</v>
+        <v>1430.76</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.753000</v>
+        <v>-312.75299999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>60782.208331</v>
+        <v>60782.208331000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>16.883947</v>
+        <v>16.883946999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1450.690000</v>
+        <v>1450.69</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.387000</v>
+        <v>-364.387</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>60793.216570</v>
+        <v>60793.216569999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>16.887005</v>
+        <v>16.887004999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1538.200000</v>
+        <v>1538.2</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.468000</v>
+        <v>-609.46799999999996</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>60804.022413</v>
+        <v>60804.022412999999</v>
       </c>
       <c r="BJ7" s="1">
         <v>16.890006</v>
       </c>
       <c r="BK7" s="1">
-        <v>1695.500000</v>
+        <v>1695.5</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1046.760000</v>
+        <v>-1046.76</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>60815.336623</v>
+        <v>60815.336623000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>16.893149</v>
+        <v>16.893149000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1993.790000</v>
+        <v>1993.79</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1800.670000</v>
+        <v>-1800.67</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>60826.628575</v>
+        <v>60826.628575000002</v>
       </c>
       <c r="BT7" s="1">
         <v>16.896286</v>
       </c>
       <c r="BU7" s="1">
-        <v>2383.280000</v>
+        <v>2383.2800000000002</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2667.640000</v>
+        <v>-2667.64</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>60837.368452</v>
+        <v>60837.368452000002</v>
       </c>
       <c r="BY7" s="1">
         <v>16.899269</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2870.160000</v>
+        <v>2870.16</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3604.630000</v>
+        <v>-3604.63</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>60849.257061</v>
+        <v>60849.257060999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>16.902571</v>
+        <v>16.902570999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>4273.850000</v>
+        <v>4273.8500000000004</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5843.370000</v>
+        <v>-5843.37</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>60677.022244</v>
       </c>
       <c r="B8" s="1">
-        <v>16.854728</v>
+        <v>16.854728000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1247.760000</v>
+        <v>1247.76</v>
       </c>
       <c r="D8" s="1">
-        <v>-303.819000</v>
+        <v>-303.81900000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>60687.464519</v>
+        <v>60687.464519000001</v>
       </c>
       <c r="G8" s="1">
-        <v>16.857629</v>
+        <v>16.857628999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1272.080000</v>
+        <v>1272.08</v>
       </c>
       <c r="I8" s="1">
-        <v>-262.605000</v>
+        <v>-262.60500000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>60697.632505</v>
+        <v>60697.632505000001</v>
       </c>
       <c r="L8" s="1">
         <v>16.860453</v>
       </c>
       <c r="M8" s="1">
-        <v>1306.510000</v>
+        <v>1306.51</v>
       </c>
       <c r="N8" s="1">
-        <v>-201.610000</v>
+        <v>-201.61</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>60708.156125</v>
+        <v>60708.156125000001</v>
       </c>
       <c r="Q8" s="1">
         <v>16.863377</v>
       </c>
       <c r="R8" s="1">
-        <v>1318.120000</v>
+        <v>1318.12</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.027000</v>
+        <v>-184.02699999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>60718.986875</v>
+        <v>60718.986875000002</v>
       </c>
       <c r="V8" s="1">
-        <v>16.866385</v>
+        <v>16.866385000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1331.140000</v>
+        <v>1331.14</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.062000</v>
+        <v>-171.06200000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>60729.445903</v>
@@ -2098,58 +2514,58 @@
         <v>16.869291</v>
       </c>
       <c r="AB8" s="1">
-        <v>1348.710000</v>
+        <v>1348.71</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.325000</v>
+        <v>-169.32499999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>60740.022625</v>
+        <v>60740.022624999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>16.872229</v>
+        <v>16.872229000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1361.910000</v>
+        <v>1361.91</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.270000</v>
+        <v>-179.27</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>60750.183637</v>
+        <v>60750.183637000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>16.875051</v>
+        <v>16.875050999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1383.140000</v>
+        <v>1383.14</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.388000</v>
+        <v>-209.38800000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>60760.883862</v>
+        <v>60760.883862000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>16.878023</v>
+        <v>16.878022999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1405.430000</v>
+        <v>1405.43</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.160000</v>
+        <v>-253.16</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>60771.823591</v>
@@ -2158,150 +2574,150 @@
         <v>16.881062</v>
       </c>
       <c r="AV8" s="1">
-        <v>1430.780000</v>
+        <v>1430.78</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.800000</v>
+        <v>-312.8</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>60782.628937</v>
+        <v>60782.628937000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>16.884064</v>
+        <v>16.884063999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1450.710000</v>
+        <v>1450.71</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.364000</v>
+        <v>-364.36399999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>60793.640122</v>
+        <v>60793.640121999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>16.887122</v>
+        <v>16.887122000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1538.160000</v>
+        <v>1538.16</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.397000</v>
+        <v>-609.39700000000005</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>60804.350770</v>
+        <v>60804.350769999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>16.890097</v>
+        <v>16.890097000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1695.480000</v>
+        <v>1695.48</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1046.720000</v>
+        <v>-1046.72</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>60815.731934</v>
+        <v>60815.731934000003</v>
       </c>
       <c r="BO8" s="1">
         <v>16.893259</v>
       </c>
       <c r="BP8" s="1">
-        <v>1993.650000</v>
+        <v>1993.65</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1800.660000</v>
+        <v>-1800.66</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>60827.039231</v>
+        <v>60827.039231000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>16.896400</v>
+        <v>16.8964</v>
       </c>
       <c r="BU8" s="1">
-        <v>2382.590000</v>
+        <v>2382.59</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2667.470000</v>
+        <v>-2667.47</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>60837.793985</v>
+        <v>60837.793984999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>16.899387</v>
+        <v>16.899387000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2870.760000</v>
+        <v>2870.76</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3604.860000</v>
+        <v>-3604.86</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>60849.777856</v>
+        <v>60849.777856000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>16.902716</v>
+        <v>16.902716000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>4278.670000</v>
+        <v>4278.67</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5834.990000</v>
+        <v>-5834.99</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>60677.363988</v>
+        <v>60677.363987999997</v>
       </c>
       <c r="B9" s="1">
         <v>16.854823</v>
       </c>
       <c r="C9" s="1">
-        <v>1247.530000</v>
+        <v>1247.53</v>
       </c>
       <c r="D9" s="1">
-        <v>-304.022000</v>
+        <v>-304.02199999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>60687.805272</v>
+        <v>60687.805271999998</v>
       </c>
       <c r="G9" s="1">
-        <v>16.857724</v>
+        <v>16.857724000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1271.870000</v>
+        <v>1271.8699999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-262.503000</v>
+        <v>-262.50299999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>60698.288859</v>
@@ -2310,270 +2726,270 @@
         <v>16.860636</v>
       </c>
       <c r="M9" s="1">
-        <v>1306.200000</v>
+        <v>1306.2</v>
       </c>
       <c r="N9" s="1">
-        <v>-201.461000</v>
+        <v>-201.46100000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>60708.815802</v>
+        <v>60708.815801999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>16.863560</v>
+        <v>16.86356</v>
       </c>
       <c r="R9" s="1">
-        <v>1318.020000</v>
+        <v>1318.02</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.982000</v>
+        <v>-183.982</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>60719.366205</v>
+        <v>60719.366204999998</v>
       </c>
       <c r="V9" s="1">
         <v>16.866491</v>
       </c>
       <c r="W9" s="1">
-        <v>1331.090000</v>
+        <v>1331.09</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.896000</v>
+        <v>-170.89599999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>60729.831793</v>
+        <v>60729.831792999998</v>
       </c>
       <c r="AA9" s="1">
         <v>16.869398</v>
       </c>
       <c r="AB9" s="1">
-        <v>1348.690000</v>
+        <v>1348.69</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.313000</v>
+        <v>-169.31299999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>60740.367808</v>
+        <v>60740.367808000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>16.872324</v>
+        <v>16.872323999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1362.010000</v>
+        <v>1362.01</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.280000</v>
+        <v>-179.28</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>60750.530339</v>
+        <v>60750.530338999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>16.875147</v>
+        <v>16.875146999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>1383.130000</v>
+        <v>1383.13</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.382000</v>
+        <v>-209.38200000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>60761.246931</v>
+        <v>60761.246931000001</v>
       </c>
       <c r="AP9" s="1">
         <v>16.878124</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1405.410000</v>
+        <v>1405.41</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.157000</v>
+        <v>-253.15700000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>60772.247672</v>
+        <v>60772.247671999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>16.881180</v>
+        <v>16.881180000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1430.760000</v>
+        <v>1430.76</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.740000</v>
+        <v>-312.74</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>60782.926573</v>
+        <v>60782.926572999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>16.884146</v>
+        <v>16.884146000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1450.680000</v>
+        <v>1450.68</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.359000</v>
+        <v>-364.35899999999998</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>60793.938218</v>
+        <v>60793.938218000003</v>
       </c>
       <c r="BE9" s="1">
-        <v>16.887205</v>
+        <v>16.887205000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1538.170000</v>
+        <v>1538.17</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.447000</v>
+        <v>-609.447</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>60804.733148</v>
+        <v>60804.733147999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>16.890204</v>
+        <v>16.890204000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1695.480000</v>
+        <v>1695.48</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1046.870000</v>
+        <v>-1046.8699999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>60816.153038</v>
+        <v>60816.153037999997</v>
       </c>
       <c r="BO9" s="1">
         <v>16.893376</v>
       </c>
       <c r="BP9" s="1">
-        <v>1993.760000</v>
+        <v>1993.76</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1800.360000</v>
+        <v>-1800.36</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>60827.468795</v>
+        <v>60827.468795000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>16.896519</v>
+        <v>16.896519000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>2382.730000</v>
+        <v>2382.73</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2666.840000</v>
+        <v>-2666.84</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>60838.231490</v>
+        <v>60838.231489999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>16.899509</v>
+        <v>16.899508999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2870.670000</v>
+        <v>2870.67</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3604.550000</v>
+        <v>-3604.55</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>60850.328413</v>
+        <v>60850.328413000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>16.902869</v>
+        <v>16.902868999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4288.790000</v>
+        <v>4288.79</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5832.180000</v>
+        <v>-5832.18</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>60677.705255</v>
+        <v>60677.705255000001</v>
       </c>
       <c r="B10" s="1">
-        <v>16.854918</v>
+        <v>16.854918000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1247.480000</v>
+        <v>1247.48</v>
       </c>
       <c r="D10" s="1">
-        <v>-303.864000</v>
+        <v>-303.86399999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>60688.462965</v>
+        <v>60688.462964999999</v>
       </c>
       <c r="G10" s="1">
         <v>16.857906</v>
       </c>
       <c r="H10" s="1">
-        <v>1272.410000</v>
+        <v>1272.4100000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-262.212000</v>
+        <v>-262.21199999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>60698.670664</v>
+        <v>60698.670663999997</v>
       </c>
       <c r="L10" s="1">
-        <v>16.860742</v>
+        <v>16.860741999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>1306.120000</v>
+        <v>1306.1199999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.565000</v>
+        <v>-201.565</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>60709.200202</v>
@@ -2582,28 +2998,28 @@
         <v>16.863667</v>
       </c>
       <c r="R10" s="1">
-        <v>1317.980000</v>
+        <v>1317.98</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.906000</v>
+        <v>-183.90600000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>60719.709966</v>
+        <v>60719.709966000002</v>
       </c>
       <c r="V10" s="1">
-        <v>16.866586</v>
+        <v>16.866586000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1331.160000</v>
+        <v>1331.16</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.886000</v>
+        <v>-170.886</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>60730.177999</v>
@@ -2612,602 +3028,602 @@
         <v>16.869494</v>
       </c>
       <c r="AB10" s="1">
-        <v>1348.710000</v>
+        <v>1348.71</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.484000</v>
+        <v>-169.48400000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>60740.717490</v>
+        <v>60740.717490000003</v>
       </c>
       <c r="AF10" s="1">
         <v>16.872422</v>
       </c>
       <c r="AG10" s="1">
-        <v>1361.880000</v>
+        <v>1361.88</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.339000</v>
+        <v>-179.339</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>60750.957927</v>
+        <v>60750.957927000003</v>
       </c>
       <c r="AK10" s="1">
         <v>16.875266</v>
       </c>
       <c r="AL10" s="1">
-        <v>1383.140000</v>
+        <v>1383.14</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.350000</v>
+        <v>-209.35</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>60761.671476</v>
+        <v>60761.671476000003</v>
       </c>
       <c r="AP10" s="1">
         <v>16.878242</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1405.410000</v>
+        <v>1405.41</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.191000</v>
+        <v>-253.191</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>60772.554200</v>
+        <v>60772.554199999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>16.881265</v>
+        <v>16.881264999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1430.780000</v>
+        <v>1430.78</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.750000</v>
+        <v>-312.75</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>60783.285144</v>
+        <v>60783.285144000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>16.884246</v>
+        <v>16.884246000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1450.720000</v>
+        <v>1450.72</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.352000</v>
+        <v>-364.35199999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>60794.302808</v>
       </c>
       <c r="BE10" s="1">
-        <v>16.887306</v>
+        <v>16.887305999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1538.170000</v>
+        <v>1538.17</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.440000</v>
+        <v>-609.44000000000005</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>60805.125980</v>
+        <v>60805.125979999997</v>
       </c>
       <c r="BJ10" s="1">
-        <v>16.890313</v>
+        <v>16.890312999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1695.370000</v>
+        <v>1695.37</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1046.780000</v>
+        <v>-1046.78</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>60816.970443</v>
+        <v>60816.970442999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>16.893603</v>
+        <v>16.893602999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1993.580000</v>
+        <v>1993.58</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1800.450000</v>
+        <v>-1800.45</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>60827.898334</v>
+        <v>60827.898333999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>16.896638</v>
+        <v>16.896637999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2382.250000</v>
+        <v>2382.25</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2666.370000</v>
+        <v>-2666.37</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>60838.662508</v>
+        <v>60838.662508000001</v>
       </c>
       <c r="BY10" s="1">
         <v>16.899628</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2870.520000</v>
+        <v>2870.52</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3603.760000</v>
+        <v>-3603.76</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>60850.860095</v>
+        <v>60850.860094999996</v>
       </c>
       <c r="CD10" s="1">
-        <v>16.903017</v>
+        <v>16.903016999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>4273.740000</v>
+        <v>4273.74</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5839.810000</v>
+        <v>-5839.81</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>60678.358963</v>
+        <v>60678.358962999999</v>
       </c>
       <c r="B11" s="1">
-        <v>16.855100</v>
+        <v>16.8551</v>
       </c>
       <c r="C11" s="1">
-        <v>1247.440000</v>
+        <v>1247.44</v>
       </c>
       <c r="D11" s="1">
-        <v>-304.158000</v>
+        <v>-304.15800000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>60688.840422</v>
+        <v>60688.840422000001</v>
       </c>
       <c r="G11" s="1">
-        <v>16.858011</v>
+        <v>16.858011000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1271.460000</v>
+        <v>1271.46</v>
       </c>
       <c r="I11" s="1">
-        <v>-263.210000</v>
+        <v>-263.20999999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>60699.015351</v>
+        <v>60699.015351000002</v>
       </c>
       <c r="L11" s="1">
-        <v>16.860838</v>
+        <v>16.860838000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1306.530000</v>
+        <v>1306.53</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.566000</v>
+        <v>-201.566</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>60709.547899</v>
+        <v>60709.547898999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>16.863763</v>
+        <v>16.863762999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1318.070000</v>
+        <v>1318.07</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.878000</v>
+        <v>-183.87799999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>60720.051676</v>
+        <v>60720.051676000003</v>
       </c>
       <c r="V11" s="1">
         <v>16.866681</v>
       </c>
       <c r="W11" s="1">
-        <v>1331.010000</v>
+        <v>1331.01</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.927000</v>
+        <v>-170.92699999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>60730.601582</v>
+        <v>60730.601582000003</v>
       </c>
       <c r="AA11" s="1">
         <v>16.869612</v>
       </c>
       <c r="AB11" s="1">
-        <v>1348.810000</v>
+        <v>1348.81</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.327000</v>
+        <v>-169.327</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>60741.142096</v>
+        <v>60741.142096000003</v>
       </c>
       <c r="AF11" s="1">
         <v>16.872539</v>
       </c>
       <c r="AG11" s="1">
-        <v>1361.950000</v>
+        <v>1361.95</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.205000</v>
+        <v>-179.20500000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>60751.234007</v>
+        <v>60751.234006999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>16.875343</v>
+        <v>16.875343000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1383.140000</v>
+        <v>1383.14</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.396000</v>
+        <v>-209.39599999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>60761.968617</v>
+        <v>60761.968616999999</v>
       </c>
       <c r="AP11" s="1">
         <v>16.878325</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1405.430000</v>
+        <v>1405.43</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.150000</v>
+        <v>-253.15</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>60772.918294</v>
+        <v>60772.918294000003</v>
       </c>
       <c r="AU11" s="1">
         <v>16.881366</v>
       </c>
       <c r="AV11" s="1">
-        <v>1430.740000</v>
+        <v>1430.74</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.740000</v>
+        <v>-312.74</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>60783.646760</v>
+        <v>60783.646760000003</v>
       </c>
       <c r="AZ11" s="1">
-        <v>16.884346</v>
+        <v>16.884346000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1450.680000</v>
+        <v>1450.68</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.298000</v>
+        <v>-364.298</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>60794.662409</v>
+        <v>60794.662408999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>16.887406</v>
+        <v>16.887405999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1538.220000</v>
+        <v>1538.22</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.381000</v>
+        <v>-609.38099999999997</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>60805.874938</v>
+        <v>60805.874938000001</v>
       </c>
       <c r="BJ11" s="1">
         <v>16.890521</v>
       </c>
       <c r="BK11" s="1">
-        <v>1695.480000</v>
+        <v>1695.48</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1046.750000</v>
+        <v>-1046.75</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>60817.388076</v>
+        <v>60817.388076000003</v>
       </c>
       <c r="BO11" s="1">
-        <v>16.893719</v>
+        <v>16.893719000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1993.620000</v>
+        <v>1993.62</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1800.410000</v>
+        <v>-1800.41</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>60828.312460</v>
+        <v>60828.312460000001</v>
       </c>
       <c r="BT11" s="1">
         <v>16.896753</v>
       </c>
       <c r="BU11" s="1">
-        <v>2382.270000</v>
+        <v>2382.27</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2665.900000</v>
+        <v>-2665.9</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>60839.079647</v>
+        <v>60839.079646999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>16.899744</v>
+        <v>16.899743999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2870.070000</v>
+        <v>2870.07</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3604.280000</v>
+        <v>-3604.28</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>60851.683496</v>
+        <v>60851.683495999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.903245</v>
+        <v>16.903244999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>4282.280000</v>
+        <v>4282.28</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5853.240000</v>
+        <v>-5853.24</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>60678.738898</v>
+        <v>60678.738898000003</v>
       </c>
       <c r="B12" s="1">
-        <v>16.855205</v>
+        <v>16.855205000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>1247.470000</v>
+        <v>1247.47</v>
       </c>
       <c r="D12" s="1">
-        <v>-303.987000</v>
+        <v>-303.98700000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>60689.185173</v>
+        <v>60689.185172999998</v>
       </c>
       <c r="G12" s="1">
         <v>16.858107</v>
       </c>
       <c r="H12" s="1">
-        <v>1272.660000</v>
+        <v>1272.6600000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-262.385000</v>
+        <v>-262.38499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>60699.362553</v>
+        <v>60699.362552999999</v>
       </c>
       <c r="L12" s="1">
         <v>16.860934</v>
       </c>
       <c r="M12" s="1">
-        <v>1306.100000</v>
+        <v>1306.0999999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.599000</v>
+        <v>-201.59899999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>60709.887657</v>
+        <v>60709.887656999999</v>
       </c>
       <c r="Q12" s="1">
         <v>16.863858</v>
       </c>
       <c r="R12" s="1">
-        <v>1318.060000</v>
+        <v>1318.06</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.951000</v>
+        <v>-183.95099999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>60720.477244</v>
+        <v>60720.477244000002</v>
       </c>
       <c r="V12" s="1">
         <v>16.866799</v>
       </c>
       <c r="W12" s="1">
-        <v>1331.240000</v>
+        <v>1331.24</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.891000</v>
+        <v>-170.89099999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>60730.883309</v>
+        <v>60730.883308999997</v>
       </c>
       <c r="AA12" s="1">
-        <v>16.869690</v>
+        <v>16.869689999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1348.680000</v>
+        <v>1348.68</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.350000</v>
+        <v>-169.35</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>60741.422303</v>
+        <v>60741.422302999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>16.872617</v>
+        <v>16.872617000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>1361.910000</v>
+        <v>1361.91</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.294000</v>
+        <v>-179.29400000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>60751.584835</v>
+        <v>60751.584835000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>16.875440</v>
+        <v>16.875440000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1383.130000</v>
+        <v>1383.13</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.392000</v>
+        <v>-209.392</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>60762.330164</v>
+        <v>60762.330163999999</v>
       </c>
       <c r="AP12" s="1">
         <v>16.878425</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1405.430000</v>
+        <v>1405.43</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.150000</v>
+        <v>-253.15</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>60773.282041</v>
+        <v>60773.282040999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>16.881467</v>
+        <v>16.881467000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1430.780000</v>
+        <v>1430.78</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.747000</v>
+        <v>-312.74700000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>60784.365463</v>
+        <v>60784.365463000002</v>
       </c>
       <c r="AZ12" s="1">
         <v>16.884546</v>
       </c>
       <c r="BA12" s="1">
-        <v>1450.690000</v>
+        <v>1450.69</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.369000</v>
+        <v>-364.36900000000003</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>60795.387529</v>
@@ -3216,210 +3632,210 @@
         <v>16.887608</v>
       </c>
       <c r="BF12" s="1">
-        <v>1538.150000</v>
+        <v>1538.15</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.396000</v>
+        <v>-609.39599999999996</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>60806.275210</v>
+        <v>60806.27521</v>
       </c>
       <c r="BJ12" s="1">
         <v>16.890632</v>
       </c>
       <c r="BK12" s="1">
-        <v>1695.410000</v>
+        <v>1695.41</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1046.580000</v>
+        <v>-1046.58</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>60817.786396</v>
+        <v>60817.786396000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>16.893830</v>
+        <v>16.893830000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1993.580000</v>
+        <v>1993.58</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1800.420000</v>
+        <v>-1800.42</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>60828.741004</v>
+        <v>60828.741004000003</v>
       </c>
       <c r="BT12" s="1">
-        <v>16.896873</v>
+        <v>16.896872999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2381.960000</v>
+        <v>2381.96</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2665.410000</v>
+        <v>-2665.41</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>60839.810749</v>
+        <v>60839.810748999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>16.899947</v>
+        <v>16.899947000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2869.630000</v>
+        <v>2869.63</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3604.080000</v>
+        <v>-3604.08</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>60851.894750</v>
+        <v>60851.894749999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>16.903304</v>
+        <v>16.903303999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4294.270000</v>
+        <v>4294.2700000000004</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5845.120000</v>
+        <v>-5845.12</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>60679.076674</v>
+        <v>60679.076674000004</v>
       </c>
       <c r="B13" s="1">
-        <v>16.855299</v>
+        <v>16.855298999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1247.380000</v>
+        <v>1247.3800000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-303.783000</v>
+        <v>-303.78300000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>60689.530388</v>
+        <v>60689.530387999999</v>
       </c>
       <c r="G13" s="1">
         <v>16.858203</v>
       </c>
       <c r="H13" s="1">
-        <v>1271.540000</v>
+        <v>1271.54</v>
       </c>
       <c r="I13" s="1">
-        <v>-262.448000</v>
+        <v>-262.44799999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>60699.778231</v>
+        <v>60699.778230999997</v>
       </c>
       <c r="L13" s="1">
-        <v>16.861050</v>
+        <v>16.861049999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1306.460000</v>
+        <v>1306.46</v>
       </c>
       <c r="N13" s="1">
-        <v>-201.391000</v>
+        <v>-201.39099999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>60710.315208</v>
       </c>
       <c r="Q13" s="1">
-        <v>16.863976</v>
+        <v>16.863976000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1318.120000</v>
+        <v>1318.12</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.960000</v>
+        <v>-183.96</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>60720.741641</v>
+        <v>60720.741641000001</v>
       </c>
       <c r="V13" s="1">
-        <v>16.866873</v>
+        <v>16.866872999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>1331.340000</v>
+        <v>1331.34</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.994000</v>
+        <v>-170.994</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>60731.228029</v>
+        <v>60731.228028999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>16.869786</v>
+        <v>16.869786000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1348.730000</v>
+        <v>1348.73</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.296000</v>
+        <v>-169.29599999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>60741.763087</v>
+        <v>60741.763086999999</v>
       </c>
       <c r="AF13" s="1">
         <v>16.872712</v>
       </c>
       <c r="AG13" s="1">
-        <v>1361.970000</v>
+        <v>1361.97</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.245000</v>
+        <v>-179.245</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>60751.929057</v>
+        <v>60751.929057000001</v>
       </c>
       <c r="AK13" s="1">
         <v>16.875536</v>
       </c>
       <c r="AL13" s="1">
-        <v>1383.130000</v>
+        <v>1383.13</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.380000</v>
+        <v>-209.38</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>60762.688275</v>
@@ -3428,300 +3844,300 @@
         <v>16.878525</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1405.380000</v>
+        <v>1405.38</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.172000</v>
+        <v>-253.172</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>60774.009460</v>
+        <v>60774.009460000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>16.881669</v>
+        <v>16.881668999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1430.810000</v>
+        <v>1430.81</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.774000</v>
+        <v>-312.774</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>60784.742887</v>
       </c>
       <c r="AZ13" s="1">
-        <v>16.884651</v>
+        <v>16.884651000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1450.700000</v>
+        <v>1450.7</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.336000</v>
+        <v>-364.33600000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>60795.759529</v>
+        <v>60795.759529000003</v>
       </c>
       <c r="BE13" s="1">
-        <v>16.887711</v>
+        <v>16.887710999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1538.150000</v>
+        <v>1538.15</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.410000</v>
+        <v>-609.41</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>60806.649690</v>
+        <v>60806.649689999998</v>
       </c>
       <c r="BJ13" s="1">
         <v>16.890736</v>
       </c>
       <c r="BK13" s="1">
-        <v>1695.450000</v>
+        <v>1695.45</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1046.720000</v>
+        <v>-1046.72</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>60818.530857</v>
+        <v>60818.530856999998</v>
       </c>
       <c r="BO13" s="1">
         <v>16.894036</v>
       </c>
       <c r="BP13" s="1">
-        <v>1993.660000</v>
+        <v>1993.66</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1800.360000</v>
+        <v>-1800.36</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>60829.383820</v>
+        <v>60829.383820000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>16.897051</v>
+        <v>16.897051000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2382.240000</v>
+        <v>2382.2399999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2664.760000</v>
+        <v>-2664.76</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>60839.985805</v>
+        <v>60839.985804999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>16.899996</v>
+        <v>16.899996000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2870.080000</v>
+        <v>2870.08</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3603.120000</v>
+        <v>-3603.12</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>60852.413068</v>
+        <v>60852.413068000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>16.903448</v>
+        <v>16.903448000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4292.940000</v>
+        <v>4292.9399999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5846.170000</v>
+        <v>-5846.17</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>60679.472024</v>
+        <v>60679.472024000002</v>
       </c>
       <c r="B14" s="1">
-        <v>16.855409</v>
+        <v>16.855409000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>1247.500000</v>
+        <v>1247.5</v>
       </c>
       <c r="D14" s="1">
-        <v>-303.963000</v>
+        <v>-303.96300000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>60689.946996</v>
+        <v>60689.946995999999</v>
       </c>
       <c r="G14" s="1">
-        <v>16.858319</v>
+        <v>16.858319000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>1271.810000</v>
+        <v>1271.81</v>
       </c>
       <c r="I14" s="1">
-        <v>-262.438000</v>
+        <v>-262.43799999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>60700.055250</v>
+        <v>60700.055249999998</v>
       </c>
       <c r="L14" s="1">
-        <v>16.861126</v>
+        <v>16.861125999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1306.350000</v>
+        <v>1306.3499999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.772000</v>
+        <v>-201.77199999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>60710.595448</v>
       </c>
       <c r="Q14" s="1">
-        <v>16.864054</v>
+        <v>16.864053999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1318.070000</v>
+        <v>1318.07</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.960000</v>
+        <v>-183.96</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>60721.085338</v>
+        <v>60721.085337999997</v>
       </c>
       <c r="V14" s="1">
         <v>16.866968</v>
       </c>
       <c r="W14" s="1">
-        <v>1331.280000</v>
+        <v>1331.28</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.845000</v>
+        <v>-170.845</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>60731.579692</v>
+        <v>60731.579691999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>16.869883</v>
+        <v>16.869883000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1348.670000</v>
+        <v>1348.67</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.351000</v>
+        <v>-169.351</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>60742.108767</v>
+        <v>60742.108766999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>16.872808</v>
+        <v>16.872807999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1362.010000</v>
+        <v>1362.01</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.250000</v>
+        <v>-179.25</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>60752.629940</v>
+        <v>60752.629939999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>16.875731</v>
+        <v>16.875730999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1383.170000</v>
+        <v>1383.17</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.390000</v>
+        <v>-209.39</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>60763.408466</v>
+        <v>60763.408466000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>16.878725</v>
+        <v>16.878724999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1405.440000</v>
+        <v>1405.44</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.163000</v>
+        <v>-253.16300000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>60774.372564</v>
+        <v>60774.372563999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>16.881770</v>
+        <v>16.881769999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1430.800000</v>
+        <v>1430.8</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.713000</v>
+        <v>-312.71300000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>60785.130996</v>
       </c>
       <c r="AZ14" s="1">
-        <v>16.884759</v>
+        <v>16.884758999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1450.700000</v>
+        <v>1450.7</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.301000</v>
+        <v>-364.30099999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>60796.133017</v>
@@ -3730,844 +4146,844 @@
         <v>16.887815</v>
       </c>
       <c r="BF14" s="1">
-        <v>1538.190000</v>
+        <v>1538.19</v>
       </c>
       <c r="BG14" s="1">
-        <v>-609.391000</v>
+        <v>-609.39099999999996</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>60807.341112</v>
+        <v>60807.341112000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>16.890928</v>
+        <v>16.890927999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1695.340000</v>
+        <v>1695.34</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1046.580000</v>
+        <v>-1046.58</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>60819.034825</v>
+        <v>60819.034825000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>16.894176</v>
+        <v>16.894176000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1993.460000</v>
+        <v>1993.46</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1800.290000</v>
+        <v>-1800.29</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>60829.581227</v>
+        <v>60829.581227000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>16.897106</v>
+        <v>16.897106000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2382.190000</v>
+        <v>2382.19</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2664.190000</v>
+        <v>-2664.19</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>60840.412860</v>
+        <v>60840.412859999997</v>
       </c>
       <c r="BY14" s="1">
         <v>16.900115</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2869.990000</v>
+        <v>2869.99</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3603.370000</v>
+        <v>-3603.37</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>60852.975037</v>
+        <v>60852.975036999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>16.903604</v>
+        <v>16.903604000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4287.160000</v>
+        <v>4287.16</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5853.840000</v>
+        <v>-5853.84</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>60680.119297</v>
+        <v>60680.119296999997</v>
       </c>
       <c r="B15" s="1">
-        <v>16.855589</v>
+        <v>16.855588999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>1247.660000</v>
+        <v>1247.6600000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-304.062000</v>
+        <v>-304.06200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>60690.242115</v>
+        <v>60690.242115000001</v>
       </c>
       <c r="G15" s="1">
-        <v>16.858401</v>
+        <v>16.858401000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1271.060000</v>
+        <v>1271.06</v>
       </c>
       <c r="I15" s="1">
-        <v>-262.592000</v>
+        <v>-262.59199999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>60700.399191</v>
+        <v>60700.399190999997</v>
       </c>
       <c r="L15" s="1">
-        <v>16.861222</v>
+        <v>16.861222000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1306.160000</v>
+        <v>1306.1600000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.525000</v>
+        <v>-201.52500000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>60710.945623</v>
       </c>
       <c r="Q15" s="1">
-        <v>16.864152</v>
+        <v>16.864152000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1318.030000</v>
+        <v>1318.03</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.007000</v>
+        <v>-184.00700000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>60721.428569</v>
+        <v>60721.428569000003</v>
       </c>
       <c r="V15" s="1">
-        <v>16.867063</v>
+        <v>16.867063000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1331.130000</v>
+        <v>1331.13</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.010000</v>
+        <v>-171.01</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>60732.275085</v>
+        <v>60732.275085000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>16.870076</v>
+        <v>16.870076000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1348.910000</v>
+        <v>1348.91</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.230000</v>
+        <v>-169.23</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>60742.796749</v>
+        <v>60742.796749000001</v>
       </c>
       <c r="AF15" s="1">
         <v>16.872999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1361.960000</v>
+        <v>1361.96</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.345000</v>
+        <v>-179.345</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>60752.978097</v>
+        <v>60752.978096999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>16.875827</v>
+        <v>16.875827000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1383.130000</v>
+        <v>1383.13</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.337000</v>
+        <v>-209.33699999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>60763.769563</v>
+        <v>60763.769563000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>16.878825</v>
+        <v>16.878824999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1405.420000</v>
+        <v>1405.42</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.177000</v>
+        <v>-253.17699999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>60774.742085</v>
+        <v>60774.742084999998</v>
       </c>
       <c r="AU15" s="1">
-        <v>16.881873</v>
+        <v>16.881872999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1430.780000</v>
+        <v>1430.78</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.770000</v>
+        <v>-312.77</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>60785.809285</v>
+        <v>60785.809285000003</v>
       </c>
       <c r="AZ15" s="1">
         <v>16.884947</v>
       </c>
       <c r="BA15" s="1">
-        <v>1450.700000</v>
+        <v>1450.7</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.341000</v>
+        <v>-364.34100000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>60796.585366</v>
+        <v>60796.585365999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>16.887940</v>
+        <v>16.88794</v>
       </c>
       <c r="BF15" s="1">
-        <v>1538.190000</v>
+        <v>1538.19</v>
       </c>
       <c r="BG15" s="1">
-        <v>-609.440000</v>
+        <v>-609.44000000000005</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>60807.810359</v>
+        <v>60807.810359000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>16.891058</v>
+        <v>16.891058000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1695.450000</v>
+        <v>1695.45</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1046.600000</v>
+        <v>-1046.5999999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>60819.444770</v>
+        <v>60819.444770000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>16.894290</v>
+        <v>16.894290000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1993.480000</v>
+        <v>1993.48</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1800.290000</v>
+        <v>-1800.29</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>60830.018202</v>
+        <v>60830.018201999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>16.897227</v>
+        <v>16.897227000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2382.230000</v>
+        <v>2382.23</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2663.970000</v>
+        <v>-2663.97</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>60840.827064</v>
+        <v>60840.827063999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>16.900230</v>
+        <v>16.900230000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2869.670000</v>
+        <v>2869.67</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3603.520000</v>
+        <v>-3603.52</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>60853.492404</v>
+        <v>60853.492403999997</v>
       </c>
       <c r="CD15" s="1">
         <v>16.903748</v>
       </c>
       <c r="CE15" s="1">
-        <v>4296.410000</v>
+        <v>4296.41</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5840.410000</v>
+        <v>-5840.41</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>60680.459547</v>
+        <v>60680.459546999999</v>
       </c>
       <c r="B16" s="1">
-        <v>16.855683</v>
+        <v>16.855682999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1247.200000</v>
+        <v>1247.2</v>
       </c>
       <c r="D16" s="1">
-        <v>-304.295000</v>
+        <v>-304.29500000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>60690.586340</v>
+        <v>60690.586340000002</v>
       </c>
       <c r="G16" s="1">
-        <v>16.858496</v>
+        <v>16.858495999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1272.860000</v>
+        <v>1272.8599999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-263.820000</v>
+        <v>-263.82</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>60700.742918</v>
+        <v>60700.742918000004</v>
       </c>
       <c r="L16" s="1">
         <v>16.861317</v>
       </c>
       <c r="M16" s="1">
-        <v>1306.140000</v>
+        <v>1306.1400000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-201.569000</v>
+        <v>-201.56899999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>60711.290343</v>
+        <v>60711.290343000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>16.864247</v>
+        <v>16.864246999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1318.090000</v>
+        <v>1318.09</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.822000</v>
+        <v>-183.822</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>60722.115564</v>
       </c>
       <c r="V16" s="1">
-        <v>16.867254</v>
+        <v>16.867253999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1331.560000</v>
+        <v>1331.56</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.985000</v>
+        <v>-170.98500000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>60732.624764</v>
       </c>
       <c r="AA16" s="1">
-        <v>16.870174</v>
+        <v>16.870173999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1348.670000</v>
+        <v>1348.67</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.343000</v>
+        <v>-169.34299999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>60743.140481</v>
+        <v>60743.140481000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>16.873095</v>
+        <v>16.873094999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1361.960000</v>
+        <v>1361.96</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.189000</v>
+        <v>-179.18899999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>60753.326786</v>
+        <v>60753.326785999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>16.875924</v>
+        <v>16.875924000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1383.130000</v>
+        <v>1383.13</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.411000</v>
+        <v>-209.411</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>60764.445106</v>
+        <v>60764.445105999999</v>
       </c>
       <c r="AP16" s="1">
         <v>16.879013</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1405.420000</v>
+        <v>1405.42</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.133000</v>
+        <v>-253.13300000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>60775.412147</v>
+        <v>60775.412147000003</v>
       </c>
       <c r="AU16" s="1">
-        <v>16.882059</v>
+        <v>16.882059000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>1430.750000</v>
+        <v>1430.75</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.714000</v>
+        <v>-312.714</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>60786.208104</v>
+        <v>60786.208103999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>16.885058</v>
+        <v>16.885058000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1450.680000</v>
+        <v>1450.68</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.360000</v>
+        <v>-364.36</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>60796.850728</v>
+        <v>60796.850727999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>16.888014</v>
+        <v>16.888013999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1538.180000</v>
+        <v>1538.18</v>
       </c>
       <c r="BG16" s="1">
-        <v>-609.407000</v>
+        <v>-609.40700000000004</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>60808.196216</v>
+        <v>60808.196215999997</v>
       </c>
       <c r="BJ16" s="1">
-        <v>16.891166</v>
+        <v>16.891165999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1695.280000</v>
+        <v>1695.28</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1046.530000</v>
+        <v>-1046.53</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>60819.843778</v>
+        <v>60819.843778000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>16.894401</v>
+        <v>16.894400999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1993.430000</v>
+        <v>1993.43</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1800.260000</v>
+        <v>-1800.26</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>60830.433850</v>
+        <v>60830.433850000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>16.897343</v>
+        <v>16.897342999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2382.320000</v>
+        <v>2382.3200000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2663.520000</v>
+        <v>-2663.52</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>60841.272460</v>
+        <v>60841.27246</v>
       </c>
       <c r="BY16" s="1">
-        <v>16.900353</v>
+        <v>16.900352999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2870.010000</v>
+        <v>2870.01</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3603.550000</v>
+        <v>-3603.55</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>60854.013659</v>
+        <v>60854.013658999997</v>
       </c>
       <c r="CD16" s="1">
         <v>16.903893</v>
       </c>
       <c r="CE16" s="1">
-        <v>4275.460000</v>
+        <v>4275.46</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5839.950000</v>
+        <v>-5839.95</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>60680.802292</v>
       </c>
       <c r="B17" s="1">
-        <v>16.855778</v>
+        <v>16.855778000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1247.660000</v>
+        <v>1247.6600000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-304.041000</v>
+        <v>-304.041</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>60690.929572</v>
+        <v>60690.929572000001</v>
       </c>
       <c r="G17" s="1">
-        <v>16.858592</v>
+        <v>16.858592000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1272.430000</v>
+        <v>1272.43</v>
       </c>
       <c r="I17" s="1">
-        <v>-263.006000</v>
+        <v>-263.00599999999997</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>60701.437318</v>
+        <v>60701.437317999997</v>
       </c>
       <c r="L17" s="1">
-        <v>16.861510</v>
+        <v>16.861509999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1306.440000</v>
+        <v>1306.44</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.655000</v>
+        <v>-201.655</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>60711.989244</v>
+        <v>60711.989243999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>16.864441</v>
+        <v>16.864440999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1318.050000</v>
+        <v>1318.05</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.913000</v>
+        <v>-183.91300000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>60722.459258</v>
+        <v>60722.459258000003</v>
       </c>
       <c r="V17" s="1">
-        <v>16.867350</v>
+        <v>16.867349999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1331.250000</v>
+        <v>1331.25</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.085000</v>
+        <v>-171.08500000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>60732.972991</v>
+        <v>60732.972991000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>16.870270</v>
+        <v>16.870270000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1348.740000</v>
+        <v>1348.74</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.340000</v>
+        <v>-169.34</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>60743.483676</v>
+        <v>60743.483676000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>16.873190</v>
+        <v>16.873190000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1361.970000</v>
+        <v>1361.97</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.268000</v>
+        <v>-179.268</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>60753.983760</v>
+        <v>60753.983760000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>16.876107</v>
+        <v>16.876107000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1383.130000</v>
+        <v>1383.13</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.388000</v>
+        <v>-209.38800000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>60764.866431</v>
+        <v>60764.866431000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>16.879130</v>
+        <v>16.87913</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1405.450000</v>
+        <v>1405.45</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.115000</v>
+        <v>-253.11500000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>60775.835731</v>
+        <v>60775.835730999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>16.882177</v>
+        <v>16.882176999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1430.770000</v>
+        <v>1430.77</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.686000</v>
+        <v>-312.68599999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>60786.594947</v>
+        <v>60786.594946999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>16.885165</v>
+        <v>16.885165000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1450.650000</v>
+        <v>1450.65</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.329000</v>
+        <v>-364.32900000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>60797.217301</v>
+        <v>60797.217300999997</v>
       </c>
       <c r="BE17" s="1">
         <v>16.888116</v>
       </c>
       <c r="BF17" s="1">
-        <v>1538.180000</v>
+        <v>1538.18</v>
       </c>
       <c r="BG17" s="1">
-        <v>-609.383000</v>
+        <v>-609.38300000000004</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>60808.574167</v>
+        <v>60808.574166999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>16.891271</v>
       </c>
       <c r="BK17" s="1">
-        <v>1695.370000</v>
+        <v>1695.37</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1046.690000</v>
+        <v>-1046.69</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>60820.264908</v>
+        <v>60820.264907999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>16.894518</v>
+        <v>16.894518000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1993.510000</v>
+        <v>1993.51</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1800.180000</v>
+        <v>-1800.18</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>60830.849497</v>
+        <v>60830.849497000003</v>
       </c>
       <c r="BT17" s="1">
         <v>16.897458</v>
       </c>
       <c r="BU17" s="1">
-        <v>2382.810000</v>
+        <v>2382.81</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2663.160000</v>
+        <v>-2663.16</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>60841.699484</v>
+        <v>60841.699483999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>16.900472</v>
+        <v>16.900472000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2869.830000</v>
+        <v>2869.83</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3603.100000</v>
+        <v>-3603.1</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>60854.551323</v>
@@ -4576,165 +4992,165 @@
         <v>16.904042</v>
       </c>
       <c r="CE17" s="1">
-        <v>4290.970000</v>
+        <v>4290.97</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5849.460000</v>
+        <v>-5849.46</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>60681.491694</v>
+        <v>60681.491693999997</v>
       </c>
       <c r="B18" s="1">
-        <v>16.855970</v>
+        <v>16.855969999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1247.860000</v>
+        <v>1247.8599999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-303.999000</v>
+        <v>-303.99900000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>60691.621026</v>
+        <v>60691.621026000001</v>
       </c>
       <c r="G18" s="1">
         <v>16.858784</v>
       </c>
       <c r="H18" s="1">
-        <v>1272.140000</v>
+        <v>1272.1400000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-262.551000</v>
+        <v>-262.55099999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>60701.784021</v>
+        <v>60701.784020999999</v>
       </c>
       <c r="L18" s="1">
-        <v>16.861607</v>
+        <v>16.861606999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1306.280000</v>
+        <v>1306.28</v>
       </c>
       <c r="N18" s="1">
-        <v>-201.341000</v>
+        <v>-201.34100000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>60712.342886</v>
+        <v>60712.342885999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>16.864540</v>
+        <v>16.864540000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>1318.050000</v>
+        <v>1318.05</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.942000</v>
+        <v>-183.94200000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>60722.802488</v>
+        <v>60722.802488000001</v>
       </c>
       <c r="V18" s="1">
         <v>16.867445</v>
       </c>
       <c r="W18" s="1">
-        <v>1331.330000</v>
+        <v>1331.33</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.815000</v>
+        <v>-170.815</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>60733.631146</v>
       </c>
       <c r="AA18" s="1">
-        <v>16.870453</v>
+        <v>16.870453000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1348.670000</v>
+        <v>1348.67</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.326000</v>
+        <v>-169.32599999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>60744.144845</v>
+        <v>60744.144845000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>16.873374</v>
+        <v>16.873373999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>1361.940000</v>
+        <v>1361.94</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.262000</v>
+        <v>-179.262</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>60754.372382</v>
+        <v>60754.372382000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>16.876215</v>
+        <v>16.876214999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>1383.110000</v>
+        <v>1383.11</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.377000</v>
+        <v>-209.37700000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>60765.229321</v>
+        <v>60765.229320999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>16.879230</v>
+        <v>16.87923</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1405.470000</v>
+        <v>1405.47</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.178000</v>
+        <v>-253.178</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>60776.196321</v>
+        <v>60776.196321000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>16.882277</v>
+        <v>16.882276999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>1430.750000</v>
+        <v>1430.75</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.766000</v>
+        <v>-312.76600000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>60786.952565</v>
@@ -4743,165 +5159,165 @@
         <v>16.885265</v>
       </c>
       <c r="BA18" s="1">
-        <v>1450.680000</v>
+        <v>1450.68</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.329000</v>
+        <v>-364.32900000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>60797.644325</v>
+        <v>60797.644325000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>16.888235</v>
+        <v>16.888235000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1538.180000</v>
+        <v>1538.18</v>
       </c>
       <c r="BG18" s="1">
-        <v>-609.363000</v>
+        <v>-609.36300000000006</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>60809.000271</v>
+        <v>60809.000270999997</v>
       </c>
       <c r="BJ18" s="1">
         <v>16.891389</v>
       </c>
       <c r="BK18" s="1">
-        <v>1695.360000</v>
+        <v>1695.36</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1046.570000</v>
+        <v>-1046.57</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>60820.662167</v>
+        <v>60820.662167000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>16.894628</v>
+        <v>16.894628000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1993.560000</v>
+        <v>1993.56</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1800.260000</v>
+        <v>-1800.26</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>60831.259194</v>
+        <v>60831.259193999998</v>
       </c>
       <c r="BT18" s="1">
         <v>16.897572</v>
       </c>
       <c r="BU18" s="1">
-        <v>2383.030000</v>
+        <v>2383.0300000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2662.630000</v>
+        <v>-2662.63</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>60842.119100</v>
+        <v>60842.119100000004</v>
       </c>
       <c r="BY18" s="1">
         <v>16.900589</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2869.720000</v>
+        <v>2869.72</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3602.850000</v>
+        <v>-3602.85</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>60855.091523</v>
+        <v>60855.091523000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>16.904192</v>
+        <v>16.904191999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>4284.860000</v>
+        <v>4284.8599999999997</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5832.160000</v>
+        <v>-5832.16</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>60681.830959</v>
+        <v>60681.830958999999</v>
       </c>
       <c r="B19" s="1">
         <v>16.856064</v>
       </c>
       <c r="C19" s="1">
-        <v>1247.370000</v>
+        <v>1247.3699999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-304.164000</v>
+        <v>-304.16399999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>60691.966210</v>
+        <v>60691.966209999999</v>
       </c>
       <c r="G19" s="1">
-        <v>16.858880</v>
+        <v>16.858879999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1271.130000</v>
+        <v>1271.1300000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-262.307000</v>
+        <v>-262.30700000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>60702.127776</v>
+        <v>60702.127776000001</v>
       </c>
       <c r="L19" s="1">
-        <v>16.861702</v>
+        <v>16.861702000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1306.360000</v>
+        <v>1306.3599999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-201.456000</v>
+        <v>-201.45599999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>60712.686617</v>
+        <v>60712.686616999999</v>
       </c>
       <c r="Q19" s="1">
         <v>16.864635</v>
       </c>
       <c r="R19" s="1">
-        <v>1318.070000</v>
+        <v>1318.07</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.987000</v>
+        <v>-183.98699999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>60723.459229</v>
@@ -4910,572 +5326,572 @@
         <v>16.867628</v>
       </c>
       <c r="W19" s="1">
-        <v>1331.010000</v>
+        <v>1331.01</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.792000</v>
+        <v>-170.792</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>60734.018853</v>
+        <v>60734.018853000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>16.870561</v>
+        <v>16.870560999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1348.670000</v>
+        <v>1348.67</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.232000</v>
+        <v>-169.232</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>60744.522827</v>
+        <v>60744.522827000001</v>
       </c>
       <c r="AF19" s="1">
         <v>16.873479</v>
       </c>
       <c r="AG19" s="1">
-        <v>1361.960000</v>
+        <v>1361.96</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.294000</v>
+        <v>-179.29400000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>60754.722527</v>
+        <v>60754.722526999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>16.876312</v>
+        <v>16.876311999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1383.100000</v>
+        <v>1383.1</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.315000</v>
+        <v>-209.315</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>60765.590369</v>
+        <v>60765.590368999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>16.879331</v>
+        <v>16.879331000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1405.430000</v>
+        <v>1405.43</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.153000</v>
+        <v>-253.15299999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>60776.565346</v>
+        <v>60776.565346000003</v>
       </c>
       <c r="AU19" s="1">
         <v>16.882379</v>
       </c>
       <c r="AV19" s="1">
-        <v>1430.770000</v>
+        <v>1430.77</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.723000</v>
+        <v>-312.72300000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>60787.367747</v>
+        <v>60787.367746999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>16.885380</v>
+        <v>16.885380000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1450.650000</v>
+        <v>1450.65</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.330000</v>
+        <v>-364.33</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>60797.938950</v>
+        <v>60797.938950000003</v>
       </c>
       <c r="BE19" s="1">
         <v>16.888316</v>
       </c>
       <c r="BF19" s="1">
-        <v>1538.180000</v>
+        <v>1538.18</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.399000</v>
+        <v>-609.399</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>60809.325642</v>
+        <v>60809.325642000003</v>
       </c>
       <c r="BJ19" s="1">
         <v>16.891479</v>
       </c>
       <c r="BK19" s="1">
-        <v>1695.380000</v>
+        <v>1695.38</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1046.660000</v>
+        <v>-1046.6600000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>60821.080822</v>
+        <v>60821.080822000004</v>
       </c>
       <c r="BO19" s="1">
         <v>16.894745</v>
       </c>
       <c r="BP19" s="1">
-        <v>1993.400000</v>
+        <v>1993.4</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1800.230000</v>
+        <v>-1800.23</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>60831.677848</v>
+        <v>60831.677847999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>16.897688</v>
+        <v>16.897687999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2383.690000</v>
+        <v>2383.69</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2662.660000</v>
+        <v>-2662.66</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>60842.569467</v>
+        <v>60842.569467000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>16.900714</v>
+        <v>16.900714000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2869.760000</v>
+        <v>2869.76</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3603.590000</v>
+        <v>-3603.59</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>60855.630618</v>
+        <v>60855.630618000003</v>
       </c>
       <c r="CD19" s="1">
         <v>16.904342</v>
       </c>
       <c r="CE19" s="1">
-        <v>4275.420000</v>
+        <v>4275.42</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5849.290000</v>
+        <v>-5849.29</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>60682.174687</v>
+        <v>60682.174686999999</v>
       </c>
       <c r="B20" s="1">
-        <v>16.856160</v>
+        <v>16.856159999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1247.320000</v>
+        <v>1247.32</v>
       </c>
       <c r="D20" s="1">
-        <v>-304.022000</v>
+        <v>-304.02199999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>60692.318376</v>
+        <v>60692.318376000003</v>
       </c>
       <c r="G20" s="1">
-        <v>16.858977</v>
+        <v>16.858976999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1272.630000</v>
+        <v>1272.6300000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-262.268000</v>
+        <v>-262.26799999999997</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>60702.789412</v>
+        <v>60702.789411999998</v>
       </c>
       <c r="L20" s="1">
-        <v>16.861886</v>
+        <v>16.861885999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>1306.260000</v>
+        <v>1306.26</v>
       </c>
       <c r="N20" s="1">
-        <v>-201.648000</v>
+        <v>-201.648</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>60713.320966</v>
+        <v>60713.320965999999</v>
       </c>
       <c r="Q20" s="1">
         <v>16.864811</v>
       </c>
       <c r="R20" s="1">
-        <v>1318.030000</v>
+        <v>1318.03</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.014000</v>
+        <v>-184.01400000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>60723.832680</v>
+        <v>60723.83268</v>
       </c>
       <c r="V20" s="1">
-        <v>16.867731</v>
+        <v>16.867730999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1331.160000</v>
+        <v>1331.16</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.028000</v>
+        <v>-171.02799999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>60734.369696</v>
+        <v>60734.369696000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>16.870658</v>
+        <v>16.870657999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1348.850000</v>
+        <v>1348.85</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.356000</v>
+        <v>-169.35599999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>60744.867517</v>
+        <v>60744.867516999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>16.873574</v>
+        <v>16.873574000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1361.660000</v>
+        <v>1361.66</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.346000</v>
+        <v>-179.346</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>60755.070222</v>
+        <v>60755.070222000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>16.876408</v>
+        <v>16.876408000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1383.090000</v>
+        <v>1383.09</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.363000</v>
+        <v>-209.363</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>60766.017919</v>
+        <v>60766.017918999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>16.879449</v>
+        <v>16.879449000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1405.440000</v>
+        <v>1405.44</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.168000</v>
+        <v>-253.16800000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>60776.989457</v>
+        <v>60776.989457000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>16.882497</v>
+        <v>16.882497000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1430.790000</v>
+        <v>1430.79</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.678000</v>
+        <v>-312.678</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>60787.669779</v>
+        <v>60787.669779000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>16.885464</v>
+        <v>16.885463999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1450.690000</v>
+        <v>1450.69</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.315000</v>
+        <v>-364.315</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>60798.301524</v>
+        <v>60798.301524000002</v>
       </c>
       <c r="BE20" s="1">
         <v>16.888417</v>
       </c>
       <c r="BF20" s="1">
-        <v>1538.190000</v>
+        <v>1538.19</v>
       </c>
       <c r="BG20" s="1">
-        <v>-609.333000</v>
+        <v>-609.33299999999997</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>60809.709510</v>
+        <v>60809.709510000001</v>
       </c>
       <c r="BJ20" s="1">
         <v>16.891586</v>
       </c>
       <c r="BK20" s="1">
-        <v>1695.460000</v>
+        <v>1695.46</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1046.630000</v>
+        <v>-1046.6300000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>60821.476133</v>
+        <v>60821.476132999996</v>
       </c>
       <c r="BO20" s="1">
-        <v>16.894854</v>
+        <v>16.894853999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1993.420000</v>
+        <v>1993.42</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1800.040000</v>
+        <v>-1800.04</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>60832.114792</v>
       </c>
       <c r="BT20" s="1">
-        <v>16.897810</v>
+        <v>16.89781</v>
       </c>
       <c r="BU20" s="1">
-        <v>2384.030000</v>
+        <v>2384.0300000000002</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2662.430000</v>
+        <v>-2662.43</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>60843.001481</v>
+        <v>60843.001480999999</v>
       </c>
       <c r="BY20" s="1">
         <v>16.900834</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2870.080000</v>
+        <v>2870.08</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3603.630000</v>
+        <v>-3603.63</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>60856.170265</v>
+        <v>60856.170265000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>16.904492</v>
+        <v>16.904492000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4295.910000</v>
+        <v>4295.91</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5837.760000</v>
+        <v>-5837.76</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>60682.831926</v>
+        <v>60682.831925999999</v>
       </c>
       <c r="B21" s="1">
-        <v>16.856342</v>
+        <v>16.856342000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1247.560000</v>
+        <v>1247.56</v>
       </c>
       <c r="D21" s="1">
-        <v>-303.778000</v>
+        <v>-303.77800000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>60692.960688</v>
+        <v>60692.960687999999</v>
       </c>
       <c r="G21" s="1">
-        <v>16.859156</v>
+        <v>16.859155999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1271.900000</v>
+        <v>1271.9000000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-262.932000</v>
+        <v>-262.93200000000002</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>60703.167859</v>
+        <v>60703.167859000001</v>
       </c>
       <c r="L21" s="1">
         <v>16.861991</v>
       </c>
       <c r="M21" s="1">
-        <v>1306.320000</v>
+        <v>1306.32</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.355000</v>
+        <v>-201.35499999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>60713.733636</v>
+        <v>60713.733635999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>16.864926</v>
+        <v>16.864926000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1318.040000</v>
+        <v>1318.04</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.873000</v>
+        <v>-183.87299999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>60724.175942</v>
+        <v>60724.175942000002</v>
       </c>
       <c r="V21" s="1">
-        <v>16.867827</v>
+        <v>16.867826999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>1331.210000</v>
+        <v>1331.21</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.898000</v>
+        <v>-170.898</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>60734.717881</v>
+        <v>60734.717880999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>16.870755</v>
+        <v>16.870754999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1348.710000</v>
+        <v>1348.71</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.252000</v>
+        <v>-169.25200000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>60745.212234</v>
+        <v>60745.212233999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>16.873670</v>
+        <v>16.873670000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1361.950000</v>
+        <v>1361.95</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.300000</v>
+        <v>-179.3</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>60755.477937</v>
+        <v>60755.477937000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>16.876522</v>
+        <v>16.876522000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1383.100000</v>
+        <v>1383.1</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.383000</v>
+        <v>-209.38300000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>60766.312048</v>
@@ -5484,180 +5900,180 @@
         <v>16.879531</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1405.450000</v>
+        <v>1405.45</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.163000</v>
+        <v>-253.16300000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>60777.290992</v>
+        <v>60777.290992000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>16.882581</v>
+        <v>16.882580999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>1430.770000</v>
+        <v>1430.77</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.701000</v>
+        <v>-312.70100000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>60788.030868</v>
+        <v>60788.030868000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>16.885564</v>
+        <v>16.885563999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1450.710000</v>
+        <v>1450.71</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.319000</v>
+        <v>-364.31900000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>60798.661124</v>
+        <v>60798.661123999998</v>
       </c>
       <c r="BE21" s="1">
         <v>16.888517</v>
       </c>
       <c r="BF21" s="1">
-        <v>1538.230000</v>
+        <v>1538.23</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.358000</v>
+        <v>-609.35799999999995</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>60810.100852</v>
+        <v>60810.100852000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>16.891695</v>
+        <v>16.891694999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1695.300000</v>
+        <v>1695.3</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1046.560000</v>
+        <v>-1046.56</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>60821.897730</v>
+        <v>60821.897729999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>16.894972</v>
+        <v>16.894971999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1993.510000</v>
+        <v>1993.51</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1800.150000</v>
+        <v>-1800.15</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>60832.542841</v>
+        <v>60832.542841000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>16.897929</v>
+        <v>16.897929000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2384.420000</v>
+        <v>2384.42</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2662.220000</v>
+        <v>-2662.22</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>60843.421096</v>
+        <v>60843.421095999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>16.900950</v>
+        <v>16.900950000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2870.380000</v>
+        <v>2870.38</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3603.060000</v>
+        <v>-3603.06</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>60856.711400</v>
+        <v>60856.7114</v>
       </c>
       <c r="CD21" s="1">
-        <v>16.904642</v>
+        <v>16.904641999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4275.170000</v>
+        <v>4275.17</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5838.040000</v>
+        <v>-5838.04</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>60683.206693</v>
       </c>
       <c r="B22" s="1">
-        <v>16.856446</v>
+        <v>16.856445999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1247.400000</v>
+        <v>1247.4000000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-304.011000</v>
+        <v>-304.01100000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>60693.350544</v>
+        <v>60693.350544000001</v>
       </c>
       <c r="G22" s="1">
         <v>16.859264</v>
       </c>
       <c r="H22" s="1">
-        <v>1271.990000</v>
+        <v>1271.99</v>
       </c>
       <c r="I22" s="1">
-        <v>-262.750000</v>
+        <v>-262.75</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>60703.511122</v>
+        <v>60703.511122000004</v>
       </c>
       <c r="L22" s="1">
-        <v>16.862086</v>
+        <v>16.862086000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1306.250000</v>
+        <v>1306.25</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.431000</v>
+        <v>-201.43100000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>60714.080339</v>
@@ -5666,88 +6082,88 @@
         <v>16.865022</v>
       </c>
       <c r="R22" s="1">
-        <v>1318.100000</v>
+        <v>1318.1</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.894000</v>
+        <v>-183.89400000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>60724.519732</v>
+        <v>60724.519732000001</v>
       </c>
       <c r="V22" s="1">
         <v>16.867922</v>
       </c>
       <c r="W22" s="1">
-        <v>1331.230000</v>
+        <v>1331.23</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.883000</v>
+        <v>-170.88300000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>60735.138525</v>
+        <v>60735.138525000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>16.870872</v>
+        <v>16.870871999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1348.690000</v>
+        <v>1348.69</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.329000</v>
+        <v>-169.32900000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>60745.658171</v>
+        <v>60745.658171000003</v>
       </c>
       <c r="AF22" s="1">
         <v>16.873794</v>
       </c>
       <c r="AG22" s="1">
-        <v>1361.970000</v>
+        <v>1361.97</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.222000</v>
+        <v>-179.22200000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>60755.779501</v>
+        <v>60755.779500999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>16.876605</v>
+        <v>16.876605000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1383.100000</v>
+        <v>1383.1</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.368000</v>
+        <v>-209.36799999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>60766.670194</v>
+        <v>60766.670193999998</v>
       </c>
       <c r="AP22" s="1">
         <v>16.879631</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1405.430000</v>
+        <v>1405.43</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.156000</v>
+        <v>-253.15600000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>60777.659024</v>
@@ -5756,1148 +6172,1149 @@
         <v>16.882683</v>
       </c>
       <c r="AV22" s="1">
-        <v>1430.750000</v>
+        <v>1430.75</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.731000</v>
+        <v>-312.73099999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>60788.387491</v>
+        <v>60788.387491000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>16.885663</v>
+        <v>16.885663000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1450.680000</v>
+        <v>1450.68</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.343000</v>
+        <v>-364.34300000000002</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>60799.387763</v>
+        <v>60799.387762999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>16.888719</v>
+        <v>16.888718999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1538.190000</v>
+        <v>1538.19</v>
       </c>
       <c r="BG22" s="1">
-        <v>-609.330000</v>
+        <v>-609.33000000000004</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>60810.849352</v>
+        <v>60810.849351999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>16.891903</v>
+        <v>16.891902999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1695.390000</v>
+        <v>1695.39</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1046.550000</v>
+        <v>-1046.55</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>60822.296980</v>
+        <v>60822.296979999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>16.895082</v>
+        <v>16.895081999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1993.540000</v>
+        <v>1993.54</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1800.150000</v>
+        <v>-1800.15</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>60832.953058</v>
+        <v>60832.953057999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>16.898043</v>
+        <v>16.898043000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2385.080000</v>
+        <v>2385.08</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2662.600000</v>
+        <v>-2662.6</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>60843.844216</v>
+        <v>60843.844215999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>16.901068</v>
+        <v>16.901067999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2869.900000</v>
+        <v>2869.9</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3603.430000</v>
+        <v>-3603.43</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>60857.561580</v>
+        <v>60857.561580000001</v>
       </c>
       <c r="CD22" s="1">
         <v>16.904878</v>
       </c>
       <c r="CE22" s="1">
-        <v>4290.000000</v>
+        <v>4290</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5834.280000</v>
+        <v>-5834.28</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>60683.556046</v>
+        <v>60683.556045999998</v>
       </c>
       <c r="B23" s="1">
-        <v>16.856543</v>
+        <v>16.856542999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1247.560000</v>
+        <v>1247.56</v>
       </c>
       <c r="D23" s="1">
-        <v>-303.703000</v>
+        <v>-303.70299999999997</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>60693.696255</v>
+        <v>60693.696255000003</v>
       </c>
       <c r="G23" s="1">
-        <v>16.859360</v>
+        <v>16.859359999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1272.480000</v>
+        <v>1272.48</v>
       </c>
       <c r="I23" s="1">
-        <v>-262.429000</v>
+        <v>-262.42899999999997</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>60703.855810</v>
+        <v>60703.855810000001</v>
       </c>
       <c r="L23" s="1">
-        <v>16.862182</v>
+        <v>16.862182000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1306.280000</v>
+        <v>1306.28</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.517000</v>
+        <v>-201.517</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>60714.513382</v>
+        <v>60714.513381999997</v>
       </c>
       <c r="Q23" s="1">
         <v>16.865143</v>
       </c>
       <c r="R23" s="1">
-        <v>1318.090000</v>
+        <v>1318.09</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.894000</v>
+        <v>-183.89400000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>60724.938295</v>
       </c>
       <c r="V23" s="1">
-        <v>16.868038</v>
+        <v>16.868037999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1331.220000</v>
+        <v>1331.22</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.044000</v>
+        <v>-171.04400000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>60735.425175</v>
+        <v>60735.425174999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>16.870951</v>
+        <v>16.870951000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1348.680000</v>
+        <v>1348.68</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.346000</v>
+        <v>-169.346</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>60745.910107</v>
+        <v>60745.910107000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>16.873864</v>
+        <v>16.873864000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1361.950000</v>
+        <v>1361.95</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.243000</v>
+        <v>-179.24299999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>60756.125213</v>
+        <v>60756.125212999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>16.876701</v>
+        <v>16.876701000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1383.090000</v>
+        <v>1383.09</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.334000</v>
+        <v>-209.334</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>60767.030782</v>
+        <v>60767.030782000002</v>
       </c>
       <c r="AP23" s="1">
         <v>16.879731</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1405.440000</v>
+        <v>1405.44</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.118000</v>
+        <v>-253.11799999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>60778.023088</v>
+        <v>60778.023088000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>16.882784</v>
+        <v>16.882784000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1430.770000</v>
+        <v>1430.77</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.704000</v>
+        <v>-312.70400000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>60789.109169</v>
+        <v>60789.109169000003</v>
       </c>
       <c r="AZ23" s="1">
-        <v>16.885864</v>
+        <v>16.885864000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1450.680000</v>
+        <v>1450.68</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.332000</v>
+        <v>-364.33199999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>60799.765746</v>
+        <v>60799.765745999997</v>
       </c>
       <c r="BE23" s="1">
         <v>16.888824</v>
       </c>
       <c r="BF23" s="1">
-        <v>1538.160000</v>
+        <v>1538.16</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.358000</v>
+        <v>-609.35799999999995</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>60811.249127</v>
+        <v>60811.249127000003</v>
       </c>
       <c r="BJ23" s="1">
         <v>16.892014</v>
       </c>
       <c r="BK23" s="1">
-        <v>1695.400000</v>
+        <v>1695.4</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1046.540000</v>
+        <v>-1046.54</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>60822.717588</v>
       </c>
       <c r="BO23" s="1">
-        <v>16.895199</v>
+        <v>16.895199000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1993.390000</v>
+        <v>1993.39</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1800.040000</v>
+        <v>-1800.04</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>60833.690581</v>
+        <v>60833.690581000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>16.898247</v>
+        <v>16.898247000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2385.520000</v>
+        <v>2385.52</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2662.800000</v>
+        <v>-2662.8</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>60844.617943</v>
+        <v>60844.617942999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>16.901283</v>
+        <v>16.901282999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2870.090000</v>
+        <v>2870.09</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3602.820000</v>
+        <v>-3602.82</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>60857.789701</v>
+        <v>60857.789701000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>16.904942</v>
+        <v>16.904941999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>4292.700000</v>
+        <v>4292.7</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5833.570000</v>
+        <v>-5833.57</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>60683.898283</v>
+        <v>60683.898283000002</v>
       </c>
       <c r="B24" s="1">
         <v>16.856638</v>
       </c>
       <c r="C24" s="1">
-        <v>1247.630000</v>
+        <v>1247.6300000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-303.743000</v>
+        <v>-303.74299999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>60694.038531</v>
+        <v>60694.038530999998</v>
       </c>
       <c r="G24" s="1">
-        <v>16.859455</v>
+        <v>16.859455000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1270.890000</v>
+        <v>1270.8900000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-262.252000</v>
+        <v>-262.25200000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>60704.273442</v>
+        <v>60704.273441999998</v>
       </c>
       <c r="L24" s="1">
-        <v>16.862298</v>
+        <v>16.862297999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1306.480000</v>
+        <v>1306.48</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.306000</v>
+        <v>-201.30600000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>60714.779731</v>
+        <v>60714.779731000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>16.865217</v>
+        <v>16.865217000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1318.050000</v>
+        <v>1318.05</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.918000</v>
+        <v>-183.91800000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>60725.231429</v>
+        <v>60725.231428999999</v>
       </c>
       <c r="V24" s="1">
-        <v>16.868120</v>
+        <v>16.868120000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1331.280000</v>
+        <v>1331.28</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.929000</v>
+        <v>-170.929</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>60735.774856</v>
+        <v>60735.774856000004</v>
       </c>
       <c r="AA24" s="1">
-        <v>16.871049</v>
+        <v>16.871048999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1348.730000</v>
+        <v>1348.73</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.358000</v>
+        <v>-169.358</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>60746.255329</v>
       </c>
       <c r="AF24" s="1">
-        <v>16.873960</v>
+        <v>16.87396</v>
       </c>
       <c r="AG24" s="1">
-        <v>1361.830000</v>
+        <v>1361.83</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.203000</v>
+        <v>-179.203</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>60756.474428</v>
+        <v>60756.474428000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>16.876798</v>
+        <v>16.876798000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1383.090000</v>
+        <v>1383.09</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.345000</v>
+        <v>-209.345</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>60767.749950</v>
+        <v>60767.749949999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>16.879931</v>
+        <v>16.879930999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1405.400000</v>
+        <v>1405.4</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.132000</v>
+        <v>-253.13200000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>60778.755182</v>
+        <v>60778.755182000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>16.882988</v>
+        <v>16.882988000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1430.730000</v>
+        <v>1430.73</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.702000</v>
+        <v>-312.702</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>60789.486127</v>
+        <v>60789.486126999996</v>
       </c>
       <c r="AZ24" s="1">
-        <v>16.885968</v>
+        <v>16.885967999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1450.650000</v>
+        <v>1450.65</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.301000</v>
+        <v>-364.30099999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>60800.145650</v>
+        <v>60800.145649999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>16.888929</v>
+        <v>16.888929000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1538.150000</v>
+        <v>1538.15</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.342000</v>
+        <v>-609.34199999999998</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>60811.625555</v>
+        <v>60811.625554999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>16.892118</v>
       </c>
       <c r="BK24" s="1">
-        <v>1695.330000</v>
+        <v>1695.33</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1046.480000</v>
+        <v>-1046.48</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>60823.416452</v>
+        <v>60823.416451999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>16.895393</v>
+        <v>16.895392999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1993.310000</v>
+        <v>1993.31</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1800.040000</v>
+        <v>-1800.04</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>60833.812102</v>
+        <v>60833.812102000004</v>
       </c>
       <c r="BT24" s="1">
-        <v>16.898281</v>
+        <v>16.898281000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2385.700000</v>
+        <v>2385.6999999999998</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2662.940000</v>
+        <v>-2662.94</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>60844.737975</v>
+        <v>60844.737974999996</v>
       </c>
       <c r="BY24" s="1">
-        <v>16.901316</v>
+        <v>16.901316000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2869.390000</v>
+        <v>2869.39</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3603.140000</v>
+        <v>-3603.14</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>60858.310501</v>
       </c>
       <c r="CD24" s="1">
-        <v>16.905086</v>
+        <v>16.905086000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4275.540000</v>
+        <v>4275.54</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5831.970000</v>
+        <v>-5831.97</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>60684.325340</v>
+        <v>60684.325340000003</v>
       </c>
       <c r="B25" s="1">
-        <v>16.856757</v>
+        <v>16.856757000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1247.320000</v>
+        <v>1247.32</v>
       </c>
       <c r="D25" s="1">
-        <v>-304.099000</v>
+        <v>-304.09899999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>60694.461085</v>
+        <v>60694.461085000003</v>
       </c>
       <c r="G25" s="1">
-        <v>16.859573</v>
+        <v>16.859573000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1271.380000</v>
+        <v>1271.3800000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-262.542000</v>
+        <v>-262.54199999999997</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>60704.568560</v>
+        <v>60704.56856</v>
       </c>
       <c r="L25" s="1">
-        <v>16.862380</v>
+        <v>16.862380000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1306.460000</v>
+        <v>1306.46</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.586000</v>
+        <v>-201.58600000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>60715.131362</v>
       </c>
       <c r="Q25" s="1">
-        <v>16.865314</v>
+        <v>16.865314000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1318.030000</v>
+        <v>1318.03</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.981000</v>
+        <v>-183.98099999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>60725.575652</v>
       </c>
       <c r="V25" s="1">
-        <v>16.868215</v>
+        <v>16.868214999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1331.130000</v>
+        <v>1331.13</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.017000</v>
+        <v>-171.017</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>60736.124535</v>
+        <v>60736.124535000003</v>
       </c>
       <c r="AA25" s="1">
         <v>16.871146</v>
       </c>
       <c r="AB25" s="1">
-        <v>1348.760000</v>
+        <v>1348.76</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.324000</v>
+        <v>-169.32400000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>60746.834649</v>
+        <v>60746.834648999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>16.874121</v>
+        <v>16.874120999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1362.120000</v>
+        <v>1362.12</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.167000</v>
+        <v>-179.167</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>60757.175738</v>
+        <v>60757.175737999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>16.876993</v>
+        <v>16.876992999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1383.090000</v>
+        <v>1383.09</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.365000</v>
+        <v>-209.36500000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>60768.113020</v>
+        <v>60768.113019999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>16.880031</v>
+        <v>16.880030999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1405.440000</v>
+        <v>1405.44</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.122000</v>
+        <v>-253.12200000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>60779.146030</v>
+        <v>60779.146030000004</v>
       </c>
       <c r="AU25" s="1">
-        <v>16.883096</v>
+        <v>16.883095999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>1430.750000</v>
+        <v>1430.75</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.717000</v>
+        <v>-312.71699999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>60789.867057</v>
+        <v>60789.867057000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>16.886074</v>
+        <v>16.886074000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1450.680000</v>
+        <v>1450.68</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.326000</v>
+        <v>-364.32600000000002</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>60800.810329</v>
       </c>
       <c r="BE25" s="1">
-        <v>16.889114</v>
+        <v>16.889113999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1538.200000</v>
+        <v>1538.2</v>
       </c>
       <c r="BG25" s="1">
-        <v>-609.337000</v>
+        <v>-609.33699999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>60812.320945</v>
+        <v>60812.320944999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>16.892311</v>
+        <v>16.892310999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1695.450000</v>
+        <v>1695.45</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1046.520000</v>
+        <v>-1046.52</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>60823.551860</v>
+        <v>60823.55186</v>
       </c>
       <c r="BO25" s="1">
-        <v>16.895431</v>
+        <v>16.895430999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1993.440000</v>
+        <v>1993.44</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1800.120000</v>
+        <v>-1800.12</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>60834.225301</v>
+        <v>60834.225300999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>16.898396</v>
+        <v>16.898396000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>2386.240000</v>
+        <v>2386.2399999999998</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2662.990000</v>
+        <v>-2662.99</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>60845.156640</v>
+        <v>60845.156640000001</v>
       </c>
       <c r="BY25" s="1">
         <v>16.901432</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2870.280000</v>
+        <v>2870.28</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3603.410000</v>
+        <v>-3603.41</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>60858.826340</v>
+        <v>60858.82634</v>
       </c>
       <c r="CD25" s="1">
-        <v>16.905230</v>
+        <v>16.90523</v>
       </c>
       <c r="CE25" s="1">
-        <v>4275.710000</v>
+        <v>4275.71</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5848.000000</v>
+        <v>-5848</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>60684.595658</v>
+        <v>60684.595657999998</v>
       </c>
       <c r="B26" s="1">
-        <v>16.856832</v>
+        <v>16.856832000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1247.430000</v>
+        <v>1247.43</v>
       </c>
       <c r="D26" s="1">
-        <v>-303.948000</v>
+        <v>-303.94799999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>60694.731407</v>
+        <v>60694.731406999999</v>
       </c>
       <c r="G26" s="1">
         <v>16.859648</v>
       </c>
       <c r="H26" s="1">
-        <v>1271.860000</v>
+        <v>1271.8599999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-261.672000</v>
+        <v>-261.67200000000003</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>60704.913313</v>
+        <v>60704.913312999997</v>
       </c>
       <c r="L26" s="1">
-        <v>16.862476</v>
+        <v>16.862476000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1306.470000</v>
+        <v>1306.47</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.697000</v>
+        <v>-201.697</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>60715.478097</v>
+        <v>60715.478096999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>16.865411</v>
+        <v>16.865411000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>1318.010000</v>
+        <v>1318.01</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.921000</v>
+        <v>-183.92099999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>60725.918357</v>
+        <v>60725.918357000002</v>
       </c>
       <c r="V26" s="1">
-        <v>16.868311</v>
+        <v>16.868310999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1331.010000</v>
+        <v>1331.01</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.875000</v>
+        <v>-170.875</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>60736.819442</v>
       </c>
       <c r="AA26" s="1">
-        <v>16.871339</v>
+        <v>16.871338999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1348.730000</v>
+        <v>1348.73</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.261000</v>
+        <v>-169.261</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>60746.942280</v>
+        <v>60746.942280000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>16.874151</v>
+        <v>16.874151000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1362.110000</v>
+        <v>1362.11</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.177000</v>
+        <v>-179.17699999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>60757.521450</v>
+        <v>60757.52145</v>
       </c>
       <c r="AK26" s="1">
-        <v>16.877089</v>
+        <v>16.877089000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>1383.090000</v>
+        <v>1383.09</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.387000</v>
+        <v>-209.387</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>60768.471134</v>
+        <v>60768.471133999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>16.880131</v>
+        <v>16.880130999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1405.460000</v>
+        <v>1405.46</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.120000</v>
+        <v>-253.12</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>60779.511086</v>
+        <v>60779.511085999999</v>
       </c>
       <c r="AU26" s="1">
         <v>16.883198</v>
       </c>
       <c r="AV26" s="1">
-        <v>1430.760000</v>
+        <v>1430.76</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.686000</v>
+        <v>-312.68599999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>60790.539630</v>
+        <v>60790.539629999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>16.886261</v>
+        <v>16.886261000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1450.680000</v>
+        <v>1450.68</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.296000</v>
+        <v>-364.29599999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>60801.230433</v>
+        <v>60801.230432999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>16.889231</v>
+        <v>16.889230999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1538.180000</v>
+        <v>1538.18</v>
       </c>
       <c r="BG26" s="1">
-        <v>-609.342000</v>
+        <v>-609.34199999999998</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>60812.780243</v>
+        <v>60812.780243000001</v>
       </c>
       <c r="BJ26" s="1">
         <v>16.892439</v>
       </c>
       <c r="BK26" s="1">
-        <v>1695.360000</v>
+        <v>1695.36</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1046.560000</v>
+        <v>-1046.56</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>60823.960890</v>
+        <v>60823.960890000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>16.895545</v>
+        <v>16.895544999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1993.290000</v>
+        <v>1993.29</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1800.000000</v>
+        <v>-1800</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>60834.657284</v>
+        <v>60834.657284000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>16.898516</v>
+        <v>16.898516000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2386.210000</v>
+        <v>2386.21</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2663.710000</v>
+        <v>-2663.71</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>60845.611927</v>
+        <v>60845.611926999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>16.901559</v>
+        <v>16.901558999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2869.290000</v>
+        <v>2869.29</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3602.640000</v>
+        <v>-3602.64</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>60859.344661</v>
+        <v>60859.344661000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>16.905374</v>
+        <v>16.905373999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>4290.010000</v>
+        <v>4290.01</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5847.220000</v>
+        <v>-5847.22</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>